--- a/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
+++ b/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhel\Desktop\CapstoneChap4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VirtualShrine\Document\Final_Documents_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -962,6 +962,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="40" xfId="11"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="41" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,6 +1052,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1057,19 +1070,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="40" xfId="11"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="41" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1377,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W49" sqref="W49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,97 +1391,97 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="114" t="s">
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="126" t="s">
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="128" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="100" t="s">
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="102" t="s">
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
       <c r="AD2" s="141" t="s">
         <v>9</v>
       </c>
       <c r="AE2" s="142"/>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="138"/>
-      <c r="AM2" s="138"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
       <c r="AD3" s="143"/>
       <c r="AE3" s="144"/>
-      <c r="AH3" s="138"/>
-      <c r="AI3" s="138"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="138"/>
-      <c r="AL3" s="138"/>
-      <c r="AM3" s="138"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -1567,15 +1567,15 @@
       <c r="AC4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="139">
+      <c r="AD4" s="106">
         <v>1</v>
       </c>
-      <c r="AE4" s="140" t="s">
+      <c r="AE4" s="107" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="132"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="AE5" s="19"/>
     </row>
     <row r="6" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="132"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="AE6" s="26"/>
     </row>
     <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="AE7" s="19"/>
     </row>
     <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="AE8" s="26"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="AE9" s="26"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="133"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="AE10" s="26"/>
     </row>
     <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="133"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="3">
         <v>7</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="AE11" s="26"/>
     </row>
     <row r="12" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="2">
         <v>8</v>
       </c>
@@ -1911,7 +1911,7 @@
       <c r="AE12" s="26"/>
     </row>
     <row r="13" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="133"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="AE13" s="26"/>
     </row>
     <row r="14" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="133"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="3">
         <v>10</v>
       </c>
@@ -1981,7 +1981,7 @@
       <c r="AE14" s="19"/>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="134"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="AE15" s="26"/>
     </row>
     <row r="16" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="134"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="2">
         <v>12</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="AE16" s="26"/>
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="134"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -2198,7 +2198,7 @@
       <c r="AE17" s="26"/>
     </row>
     <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="135"/>
+      <c r="A18" s="103"/>
       <c r="B18" s="3">
         <v>14</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="AE18" s="26"/>
     </row>
     <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="135"/>
+      <c r="A19" s="103"/>
       <c r="B19" s="2">
         <v>15</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="AE19" s="26"/>
     </row>
     <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="135"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="2">
         <v>16</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="AE20" s="26"/>
     </row>
     <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="135"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="2">
         <v>17</v>
       </c>
@@ -2562,112 +2562,280 @@
       <c r="AE21" s="26"/>
     </row>
     <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="135"/>
+      <c r="A22" s="103"/>
       <c r="B22" s="3">
         <v>18</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="83"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="87"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="91"/>
+      <c r="C22" s="35">
+        <v>5</v>
+      </c>
+      <c r="D22" s="40">
+        <v>5</v>
+      </c>
+      <c r="E22" s="45">
+        <v>5</v>
+      </c>
+      <c r="F22" s="20">
+        <v>15</v>
+      </c>
+      <c r="G22" s="50">
+        <v>5</v>
+      </c>
+      <c r="H22" s="54">
+        <v>5</v>
+      </c>
+      <c r="I22" s="54">
+        <v>5</v>
+      </c>
+      <c r="J22" s="54">
+        <v>5</v>
+      </c>
+      <c r="K22" s="21">
+        <v>20</v>
+      </c>
+      <c r="L22" s="58">
+        <v>5</v>
+      </c>
+      <c r="M22" s="62">
+        <v>5</v>
+      </c>
+      <c r="N22" s="62">
+        <v>5</v>
+      </c>
+      <c r="O22" s="22">
+        <v>15</v>
+      </c>
+      <c r="P22" s="67">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="71">
+        <v>5</v>
+      </c>
+      <c r="R22" s="71">
+        <v>5</v>
+      </c>
+      <c r="S22" s="71">
+        <v>5</v>
+      </c>
+      <c r="T22" s="23">
+        <v>20</v>
+      </c>
+      <c r="U22" s="75">
+        <v>5</v>
+      </c>
+      <c r="V22" s="79">
+        <v>5</v>
+      </c>
+      <c r="W22" s="79">
+        <v>5</v>
+      </c>
+      <c r="X22" s="24">
+        <v>15</v>
+      </c>
+      <c r="Y22" s="83">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="87">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="87">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="87">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="25">
+        <v>20</v>
+      </c>
+      <c r="AD22" s="91">
+        <v>5</v>
+      </c>
       <c r="AE22" s="26"/>
     </row>
     <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="135"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="2">
         <v>19</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="91"/>
+      <c r="C23" s="35">
+        <v>5</v>
+      </c>
+      <c r="D23" s="40">
+        <v>5</v>
+      </c>
+      <c r="E23" s="45">
+        <v>5</v>
+      </c>
+      <c r="F23" s="20">
+        <v>15</v>
+      </c>
+      <c r="G23" s="50">
+        <v>5</v>
+      </c>
+      <c r="H23" s="54">
+        <v>5</v>
+      </c>
+      <c r="I23" s="54">
+        <v>5</v>
+      </c>
+      <c r="J23" s="54">
+        <v>5</v>
+      </c>
+      <c r="K23" s="21">
+        <v>20</v>
+      </c>
+      <c r="L23" s="58">
+        <v>5</v>
+      </c>
+      <c r="M23" s="62">
+        <v>5</v>
+      </c>
+      <c r="N23" s="62">
+        <v>5</v>
+      </c>
+      <c r="O23" s="22">
+        <v>15</v>
+      </c>
+      <c r="P23" s="67">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="71">
+        <v>5</v>
+      </c>
+      <c r="R23" s="71">
+        <v>5</v>
+      </c>
+      <c r="S23" s="71">
+        <v>5</v>
+      </c>
+      <c r="T23" s="23">
+        <v>20</v>
+      </c>
+      <c r="U23" s="75">
+        <v>5</v>
+      </c>
+      <c r="V23" s="79">
+        <v>5</v>
+      </c>
+      <c r="W23" s="79">
+        <v>5</v>
+      </c>
+      <c r="X23" s="24">
+        <v>15</v>
+      </c>
+      <c r="Y23" s="83">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="87">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="87">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="87">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="25">
+        <v>20</v>
+      </c>
+      <c r="AD23" s="91">
+        <v>5</v>
+      </c>
       <c r="AE23" s="26"/>
     </row>
     <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="135"/>
+      <c r="A24" s="103"/>
       <c r="B24" s="3">
         <v>20</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="91"/>
+      <c r="C24" s="35">
+        <v>5</v>
+      </c>
+      <c r="D24" s="40">
+        <v>5</v>
+      </c>
+      <c r="E24" s="45">
+        <v>5</v>
+      </c>
+      <c r="F24" s="20">
+        <v>15</v>
+      </c>
+      <c r="G24" s="50">
+        <v>4</v>
+      </c>
+      <c r="H24" s="54">
+        <v>3</v>
+      </c>
+      <c r="I24" s="54">
+        <v>4</v>
+      </c>
+      <c r="J24" s="54">
+        <v>5</v>
+      </c>
+      <c r="K24" s="21">
+        <v>16</v>
+      </c>
+      <c r="L24" s="58">
+        <v>5</v>
+      </c>
+      <c r="M24" s="62">
+        <v>4</v>
+      </c>
+      <c r="N24" s="62">
+        <v>5</v>
+      </c>
+      <c r="O24" s="22">
+        <v>14</v>
+      </c>
+      <c r="P24" s="67">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="71">
+        <v>5</v>
+      </c>
+      <c r="R24" s="71">
+        <v>4</v>
+      </c>
+      <c r="S24" s="71">
+        <v>4</v>
+      </c>
+      <c r="T24" s="23">
+        <v>18</v>
+      </c>
+      <c r="U24" s="75">
+        <v>4</v>
+      </c>
+      <c r="V24" s="79">
+        <v>5</v>
+      </c>
+      <c r="W24" s="79">
+        <v>5</v>
+      </c>
+      <c r="X24" s="24">
+        <v>14</v>
+      </c>
+      <c r="Y24" s="83">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="87">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="87">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="87">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="25">
+        <v>17</v>
+      </c>
+      <c r="AD24" s="91">
+        <v>5</v>
+      </c>
       <c r="AE24" s="26"/>
     </row>
     <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="135"/>
+      <c r="A25" s="103"/>
       <c r="B25" s="2">
         <v>21</v>
       </c>
@@ -2702,7 +2870,7 @@
       <c r="AE25" s="26"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="135"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="3">
         <v>22</v>
       </c>
@@ -2737,7 +2905,7 @@
       <c r="AE26" s="26"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="135"/>
+      <c r="A27" s="103"/>
       <c r="B27" s="2">
         <v>23</v>
       </c>
@@ -2828,7 +2996,7 @@
       <c r="AE27" s="26"/>
     </row>
     <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="136"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="2">
         <v>24</v>
       </c>
@@ -2919,7 +3087,7 @@
       <c r="AE28" s="26"/>
     </row>
     <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="136"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="2">
         <v>25</v>
       </c>
@@ -3010,7 +3178,7 @@
       <c r="AE29" s="26"/>
     </row>
     <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="136"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -3101,7 +3269,7 @@
       <c r="AE30" s="26"/>
     </row>
     <row r="31" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="136"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="2">
         <v>27</v>
       </c>
@@ -3192,7 +3360,7 @@
       <c r="AE31" s="26"/>
     </row>
     <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="136"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="3">
         <v>28</v>
       </c>
@@ -3283,7 +3451,7 @@
       <c r="AE32" s="26"/>
     </row>
     <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="136"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="2">
         <v>29</v>
       </c>
@@ -3374,7 +3542,7 @@
       <c r="AE33" s="26"/>
     </row>
     <row r="34" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="136"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="3">
         <v>30</v>
       </c>
@@ -3465,7 +3633,7 @@
       <c r="AE34" s="26"/>
     </row>
     <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="136"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="2">
         <v>31</v>
       </c>
@@ -3556,7 +3724,7 @@
       <c r="AE35" s="26"/>
     </row>
     <row r="36" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="136"/>
+      <c r="A36" s="104"/>
       <c r="B36" s="3">
         <v>32</v>
       </c>
@@ -3647,7 +3815,7 @@
       <c r="AE36" s="26"/>
     </row>
     <row r="37" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="136"/>
+      <c r="A37" s="104"/>
       <c r="B37" s="2">
         <v>33</v>
       </c>
@@ -3738,7 +3906,7 @@
       <c r="AE37" s="26"/>
     </row>
     <row r="38" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="137"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="2">
         <v>34</v>
       </c>
@@ -3829,7 +3997,7 @@
       <c r="AE38" s="26"/>
     </row>
     <row r="39" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="137"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="3">
         <v>35</v>
       </c>
@@ -3920,7 +4088,7 @@
       <c r="AE39" s="26"/>
     </row>
     <row r="40" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="137"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="2">
         <v>36</v>
       </c>
@@ -4011,7 +4179,7 @@
       <c r="AE40" s="26"/>
     </row>
     <row r="41" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="137"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="2">
         <v>37</v>
       </c>
@@ -4102,7 +4270,7 @@
       <c r="AE41" s="26"/>
     </row>
     <row r="42" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="137"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="3">
         <v>38</v>
       </c>
@@ -4193,7 +4361,7 @@
       <c r="AE42" s="26"/>
     </row>
     <row r="43" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="137"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="2">
         <v>39</v>
       </c>
@@ -4284,7 +4452,7 @@
       <c r="AE43" s="26"/>
     </row>
     <row r="44" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="137"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="3">
         <v>40</v>
       </c>
@@ -4375,7 +4543,7 @@
       <c r="AE44" s="26"/>
     </row>
     <row r="45" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="137"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="2">
         <v>41</v>
       </c>
@@ -4466,7 +4634,7 @@
       <c r="AE45" s="26"/>
     </row>
     <row r="46" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="137"/>
+      <c r="A46" s="105"/>
       <c r="B46" s="3">
         <v>42</v>
       </c>
@@ -4557,7 +4725,7 @@
       <c r="AE46" s="26"/>
     </row>
     <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="137"/>
+      <c r="A47" s="105"/>
       <c r="B47" s="2">
         <v>43</v>
       </c>
@@ -4648,7 +4816,7 @@
       <c r="AE47" s="26"/>
     </row>
     <row r="48" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="137"/>
+      <c r="A48" s="105"/>
       <c r="B48" s="3">
         <v>44</v>
       </c>
@@ -4739,7 +4907,7 @@
       <c r="AE48" s="26"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="137"/>
+      <c r="A49" s="105"/>
       <c r="B49" s="4">
         <v>45</v>
       </c>
@@ -4866,15 +5034,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AH2:AM3"/>
+    <mergeCell ref="P2:T3"/>
+    <mergeCell ref="AD2:AE3"/>
     <mergeCell ref="U2:X3"/>
     <mergeCell ref="Y2:AC3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:F3"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="L2:O3"/>
-    <mergeCell ref="AH2:AM3"/>
-    <mergeCell ref="P2:T3"/>
-    <mergeCell ref="AD2:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
+++ b/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VirtualShrine\Document\Final_Documents_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856D1FBB-E514-4F07-8866-0361C370EB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -845,7 +846,7 @@
   </cellStyleXfs>
   <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,6 +975,37 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1050,37 +1082,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1374,116 +1375,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W49" sqref="W49"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="32" max="33" width="9.28515625" customWidth="1"/>
+    <col min="32" max="33" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="122" t="s">
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="128" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="135" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="139" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="108" t="s">
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="110" t="s">
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="141" t="s">
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="142"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134"/>
+      <c r="AE2" s="116"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
     </row>
-    <row r="3" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="140"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="144"/>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="134"/>
-      <c r="AJ3" s="134"/>
-      <c r="AK3" s="134"/>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="134"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="118"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
     </row>
-    <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="65"/>
       <c r="C4" s="94">
@@ -1574,7 +1575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="100"/>
       <c r="B5" s="2">
         <v>1</v>
@@ -1609,7 +1610,7 @@
       <c r="AD5" s="90"/>
       <c r="AE5" s="19"/>
     </row>
-    <row r="6" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="100"/>
       <c r="B6" s="2">
         <v>2</v>
@@ -1644,7 +1645,7 @@
       <c r="AD6" s="91"/>
       <c r="AE6" s="26"/>
     </row>
-    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="100"/>
       <c r="B7" s="4">
         <v>3</v>
@@ -1679,7 +1680,7 @@
       <c r="AD7" s="90"/>
       <c r="AE7" s="19"/>
     </row>
-    <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="100"/>
       <c r="B8" s="2">
         <v>4</v>
@@ -1714,7 +1715,7 @@
       <c r="AD8" s="91"/>
       <c r="AE8" s="26"/>
     </row>
-    <row r="9" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="100"/>
       <c r="B9" s="3">
         <v>5</v>
@@ -1749,7 +1750,7 @@
       <c r="AD9" s="91"/>
       <c r="AE9" s="26"/>
     </row>
-    <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="101"/>
       <c r="B10" s="2">
         <v>6</v>
@@ -1840,42 +1841,98 @@
       </c>
       <c r="AE10" s="26"/>
     </row>
-    <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="101"/>
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="91"/>
+      <c r="C11" s="35">
+        <v>4</v>
+      </c>
+      <c r="D11" s="40">
+        <v>4</v>
+      </c>
+      <c r="E11" s="45">
+        <v>5</v>
+      </c>
+      <c r="F11" s="20">
+        <v>13</v>
+      </c>
+      <c r="G11" s="50">
+        <v>5</v>
+      </c>
+      <c r="H11" s="54">
+        <v>4</v>
+      </c>
+      <c r="I11" s="54">
+        <v>5</v>
+      </c>
+      <c r="J11" s="54">
+        <v>5</v>
+      </c>
+      <c r="K11" s="21">
+        <v>19</v>
+      </c>
+      <c r="L11" s="58">
+        <v>5</v>
+      </c>
+      <c r="M11" s="62">
+        <v>5</v>
+      </c>
+      <c r="N11" s="62">
+        <v>5</v>
+      </c>
+      <c r="O11" s="22">
+        <v>15</v>
+      </c>
+      <c r="P11" s="67">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="71">
+        <v>5</v>
+      </c>
+      <c r="R11" s="71">
+        <v>5</v>
+      </c>
+      <c r="S11" s="71">
+        <v>5</v>
+      </c>
+      <c r="T11" s="23">
+        <v>20</v>
+      </c>
+      <c r="U11" s="75">
+        <v>5</v>
+      </c>
+      <c r="V11" s="79">
+        <v>5</v>
+      </c>
+      <c r="W11" s="79">
+        <v>5</v>
+      </c>
+      <c r="X11" s="24">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="83">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="87">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="87">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="87">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="25">
+        <v>16</v>
+      </c>
+      <c r="AD11" s="91">
+        <v>5</v>
+      </c>
       <c r="AE11" s="26"/>
     </row>
-    <row r="12" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="101"/>
       <c r="B12" s="2">
         <v>8</v>
@@ -1910,7 +1967,7 @@
       <c r="AD12" s="91"/>
       <c r="AE12" s="26"/>
     </row>
-    <row r="13" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="101"/>
       <c r="B13" s="2">
         <v>9</v>
@@ -1945,7 +2002,7 @@
       <c r="AD13" s="91"/>
       <c r="AE13" s="26"/>
     </row>
-    <row r="14" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="101"/>
       <c r="B14" s="3">
         <v>10</v>
@@ -1980,7 +2037,7 @@
       <c r="AD14" s="90"/>
       <c r="AE14" s="19"/>
     </row>
-    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="102"/>
       <c r="B15" s="2">
         <v>11</v>
@@ -2071,7 +2128,7 @@
       </c>
       <c r="AE15" s="26"/>
     </row>
-    <row r="16" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="102"/>
       <c r="B16" s="2">
         <v>12</v>
@@ -2162,42 +2219,98 @@
       </c>
       <c r="AE16" s="26"/>
     </row>
-    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="102"/>
       <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="87"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="91"/>
+      <c r="C17" s="35">
+        <v>5</v>
+      </c>
+      <c r="D17" s="40">
+        <v>4</v>
+      </c>
+      <c r="E17" s="45">
+        <v>5</v>
+      </c>
+      <c r="F17" s="20">
+        <v>14</v>
+      </c>
+      <c r="G17" s="50">
+        <v>5</v>
+      </c>
+      <c r="H17" s="54">
+        <v>5</v>
+      </c>
+      <c r="I17" s="54">
+        <v>4</v>
+      </c>
+      <c r="J17" s="54">
+        <v>4</v>
+      </c>
+      <c r="K17" s="21">
+        <v>18</v>
+      </c>
+      <c r="L17" s="58">
+        <v>4</v>
+      </c>
+      <c r="M17" s="62">
+        <v>4</v>
+      </c>
+      <c r="N17" s="62">
+        <v>5</v>
+      </c>
+      <c r="O17" s="22">
+        <v>13</v>
+      </c>
+      <c r="P17" s="67">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="71">
+        <v>5</v>
+      </c>
+      <c r="R17" s="71">
+        <v>5</v>
+      </c>
+      <c r="S17" s="71">
+        <v>5</v>
+      </c>
+      <c r="T17" s="23">
+        <v>19</v>
+      </c>
+      <c r="U17" s="75">
+        <v>4</v>
+      </c>
+      <c r="V17" s="79">
+        <v>5</v>
+      </c>
+      <c r="W17" s="79">
+        <v>4</v>
+      </c>
+      <c r="X17" s="24">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="83">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="87">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="87">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="87">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="25">
+        <v>20</v>
+      </c>
+      <c r="AD17" s="91">
+        <v>5</v>
+      </c>
       <c r="AE17" s="26"/>
     </row>
-    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="103"/>
       <c r="B18" s="3">
         <v>14</v>
@@ -2288,7 +2401,7 @@
       </c>
       <c r="AE18" s="26"/>
     </row>
-    <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="103"/>
       <c r="B19" s="2">
         <v>15</v>
@@ -2379,7 +2492,7 @@
       </c>
       <c r="AE19" s="26"/>
     </row>
-    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="103"/>
       <c r="B20" s="2">
         <v>16</v>
@@ -2470,7 +2583,7 @@
       </c>
       <c r="AE20" s="26"/>
     </row>
-    <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="103"/>
       <c r="B21" s="2">
         <v>17</v>
@@ -2561,7 +2674,7 @@
       </c>
       <c r="AE21" s="26"/>
     </row>
-    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="103"/>
       <c r="B22" s="3">
         <v>18</v>
@@ -2652,7 +2765,7 @@
       </c>
       <c r="AE22" s="26"/>
     </row>
-    <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="103"/>
       <c r="B23" s="2">
         <v>19</v>
@@ -2743,7 +2856,7 @@
       </c>
       <c r="AE23" s="26"/>
     </row>
-    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="103"/>
       <c r="B24" s="3">
         <v>20</v>
@@ -2834,7 +2947,7 @@
       </c>
       <c r="AE24" s="26"/>
     </row>
-    <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="103"/>
       <c r="B25" s="2">
         <v>21</v>
@@ -2869,7 +2982,7 @@
       <c r="AD25" s="91"/>
       <c r="AE25" s="26"/>
     </row>
-    <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="103"/>
       <c r="B26" s="3">
         <v>22</v>
@@ -2904,7 +3017,7 @@
       <c r="AD26" s="91"/>
       <c r="AE26" s="26"/>
     </row>
-    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="103"/>
       <c r="B27" s="2">
         <v>23</v>
@@ -2995,7 +3108,7 @@
       </c>
       <c r="AE27" s="26"/>
     </row>
-    <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="104"/>
       <c r="B28" s="2">
         <v>24</v>
@@ -3086,7 +3199,7 @@
       </c>
       <c r="AE28" s="26"/>
     </row>
-    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="104"/>
       <c r="B29" s="2">
         <v>25</v>
@@ -3177,7 +3290,7 @@
       </c>
       <c r="AE29" s="26"/>
     </row>
-    <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="104"/>
       <c r="B30" s="4">
         <v>26</v>
@@ -3268,7 +3381,7 @@
       </c>
       <c r="AE30" s="26"/>
     </row>
-    <row r="31" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="104"/>
       <c r="B31" s="2">
         <v>27</v>
@@ -3359,7 +3472,7 @@
       </c>
       <c r="AE31" s="26"/>
     </row>
-    <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="104"/>
       <c r="B32" s="3">
         <v>28</v>
@@ -3450,7 +3563,7 @@
       </c>
       <c r="AE32" s="26"/>
     </row>
-    <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="104"/>
       <c r="B33" s="2">
         <v>29</v>
@@ -3541,7 +3654,7 @@
       </c>
       <c r="AE33" s="26"/>
     </row>
-    <row r="34" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="104"/>
       <c r="B34" s="3">
         <v>30</v>
@@ -3632,7 +3745,7 @@
       </c>
       <c r="AE34" s="26"/>
     </row>
-    <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="104"/>
       <c r="B35" s="2">
         <v>31</v>
@@ -3723,7 +3836,7 @@
       </c>
       <c r="AE35" s="26"/>
     </row>
-    <row r="36" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="104"/>
       <c r="B36" s="3">
         <v>32</v>
@@ -3814,7 +3927,7 @@
       </c>
       <c r="AE36" s="26"/>
     </row>
-    <row r="37" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="104"/>
       <c r="B37" s="2">
         <v>33</v>
@@ -3905,7 +4018,7 @@
       </c>
       <c r="AE37" s="26"/>
     </row>
-    <row r="38" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="105"/>
       <c r="B38" s="2">
         <v>34</v>
@@ -3996,7 +4109,7 @@
       </c>
       <c r="AE38" s="26"/>
     </row>
-    <row r="39" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="105"/>
       <c r="B39" s="3">
         <v>35</v>
@@ -4087,7 +4200,7 @@
       </c>
       <c r="AE39" s="26"/>
     </row>
-    <row r="40" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="105"/>
       <c r="B40" s="2">
         <v>36</v>
@@ -4178,7 +4291,7 @@
       </c>
       <c r="AE40" s="26"/>
     </row>
-    <row r="41" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="105"/>
       <c r="B41" s="2">
         <v>37</v>
@@ -4269,7 +4382,7 @@
       </c>
       <c r="AE41" s="26"/>
     </row>
-    <row r="42" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="105"/>
       <c r="B42" s="3">
         <v>38</v>
@@ -4360,7 +4473,7 @@
       </c>
       <c r="AE42" s="26"/>
     </row>
-    <row r="43" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="105"/>
       <c r="B43" s="2">
         <v>39</v>
@@ -4451,7 +4564,7 @@
       </c>
       <c r="AE43" s="26"/>
     </row>
-    <row r="44" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="105"/>
       <c r="B44" s="3">
         <v>40</v>
@@ -4542,7 +4655,7 @@
       </c>
       <c r="AE44" s="26"/>
     </row>
-    <row r="45" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="105"/>
       <c r="B45" s="2">
         <v>41</v>
@@ -4633,7 +4746,7 @@
       </c>
       <c r="AE45" s="26"/>
     </row>
-    <row r="46" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="105"/>
       <c r="B46" s="3">
         <v>42</v>
@@ -4724,7 +4837,7 @@
       </c>
       <c r="AE46" s="26"/>
     </row>
-    <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="105"/>
       <c r="B47" s="2">
         <v>43</v>
@@ -4815,7 +4928,7 @@
       </c>
       <c r="AE47" s="26"/>
     </row>
-    <row r="48" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="105"/>
       <c r="B48" s="3">
         <v>44</v>
@@ -4906,7 +5019,7 @@
       </c>
       <c r="AE48" s="26"/>
     </row>
-    <row r="49" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="105"/>
       <c r="B49" s="4">
         <v>45</v>
@@ -4997,7 +5110,7 @@
       </c>
       <c r="AE49" s="11"/>
     </row>
-    <row r="50" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
         <v>1</v>
@@ -5034,15 +5147,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="L2:O3"/>
     <mergeCell ref="AH2:AM3"/>
     <mergeCell ref="P2:T3"/>
     <mergeCell ref="AD2:AE3"/>
     <mergeCell ref="U2:X3"/>
     <mergeCell ref="Y2:AC3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:F3"/>
-    <mergeCell ref="G2:K3"/>
-    <mergeCell ref="L2:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
+++ b/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VirtualShrine\Document\Final_Documents_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856D1FBB-E514-4F07-8866-0361C370EB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE9E4BC-2656-44D0-9E43-39B028045EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
+++ b/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VirtualShrine\Document\Final_Documents_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE9E4BC-2656-44D0-9E43-39B028045EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -975,55 +974,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,6 +1032,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,116 +1374,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="32" max="33" width="9.33203125" customWidth="1"/>
+    <col min="32" max="33" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="133" t="s">
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="139" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="109" t="s">
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="119" t="s">
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="121" t="s">
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="115" t="s">
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="116"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
+      <c r="AE2" s="136"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
     </row>
-    <row r="3" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="118"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="144"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="138"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
     </row>
-    <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="65"/>
       <c r="C4" s="94">
@@ -1575,77 +1574,189 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="100"/>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="90"/>
+      <c r="C5" s="34">
+        <v>5</v>
+      </c>
+      <c r="D5" s="39">
+        <v>4</v>
+      </c>
+      <c r="E5" s="44">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>14</v>
+      </c>
+      <c r="G5" s="49">
+        <v>5</v>
+      </c>
+      <c r="H5" s="53">
+        <v>5</v>
+      </c>
+      <c r="I5" s="53">
+        <v>4</v>
+      </c>
+      <c r="J5" s="53">
+        <v>4</v>
+      </c>
+      <c r="K5" s="14">
+        <v>18</v>
+      </c>
+      <c r="L5" s="57">
+        <v>5</v>
+      </c>
+      <c r="M5" s="61">
+        <v>5</v>
+      </c>
+      <c r="N5" s="61">
+        <v>5</v>
+      </c>
+      <c r="O5" s="15">
+        <v>15</v>
+      </c>
+      <c r="P5" s="66">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="70">
+        <v>5</v>
+      </c>
+      <c r="R5" s="70">
+        <v>5</v>
+      </c>
+      <c r="S5" s="70">
+        <v>5</v>
+      </c>
+      <c r="T5" s="16">
+        <v>19</v>
+      </c>
+      <c r="U5" s="74">
+        <v>5</v>
+      </c>
+      <c r="V5" s="78">
+        <v>5</v>
+      </c>
+      <c r="W5" s="78">
+        <v>5</v>
+      </c>
+      <c r="X5" s="17">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="82">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="86">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="86">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="86">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>20</v>
+      </c>
+      <c r="AD5" s="90">
+        <v>5</v>
+      </c>
       <c r="AE5" s="19"/>
     </row>
-    <row r="6" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="100"/>
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="91"/>
+      <c r="C6" s="35">
+        <v>5</v>
+      </c>
+      <c r="D6" s="40">
+        <v>4</v>
+      </c>
+      <c r="E6" s="45">
+        <v>5</v>
+      </c>
+      <c r="F6" s="20">
+        <v>14</v>
+      </c>
+      <c r="G6" s="50">
+        <v>4</v>
+      </c>
+      <c r="H6" s="54">
+        <v>4</v>
+      </c>
+      <c r="I6" s="54">
+        <v>5</v>
+      </c>
+      <c r="J6" s="54">
+        <v>5</v>
+      </c>
+      <c r="K6" s="21">
+        <v>18</v>
+      </c>
+      <c r="L6" s="58">
+        <v>5</v>
+      </c>
+      <c r="M6" s="62">
+        <v>5</v>
+      </c>
+      <c r="N6" s="62">
+        <v>4</v>
+      </c>
+      <c r="O6" s="22">
+        <v>14</v>
+      </c>
+      <c r="P6" s="67">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="71">
+        <v>5</v>
+      </c>
+      <c r="R6" s="71">
+        <v>4</v>
+      </c>
+      <c r="S6" s="71">
+        <v>4</v>
+      </c>
+      <c r="T6" s="23">
+        <v>18</v>
+      </c>
+      <c r="U6" s="75">
+        <v>5</v>
+      </c>
+      <c r="V6" s="79">
+        <v>5</v>
+      </c>
+      <c r="W6" s="79">
+        <v>4</v>
+      </c>
+      <c r="X6" s="24">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="83">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="87">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="87">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="87">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="25">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="91">
+        <v>5</v>
+      </c>
       <c r="AE6" s="26"/>
     </row>
-    <row r="7" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100"/>
       <c r="B7" s="4">
         <v>3</v>
@@ -1680,7 +1791,7 @@
       <c r="AD7" s="90"/>
       <c r="AE7" s="19"/>
     </row>
-    <row r="8" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="100"/>
       <c r="B8" s="2">
         <v>4</v>
@@ -1715,7 +1826,7 @@
       <c r="AD8" s="91"/>
       <c r="AE8" s="26"/>
     </row>
-    <row r="9" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="100"/>
       <c r="B9" s="3">
         <v>5</v>
@@ -1750,7 +1861,7 @@
       <c r="AD9" s="91"/>
       <c r="AE9" s="26"/>
     </row>
-    <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="101"/>
       <c r="B10" s="2">
         <v>6</v>
@@ -1841,7 +1952,7 @@
       </c>
       <c r="AE10" s="26"/>
     </row>
-    <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="101"/>
       <c r="B11" s="3">
         <v>7</v>
@@ -1932,7 +2043,7 @@
       </c>
       <c r="AE11" s="26"/>
     </row>
-    <row r="12" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="101"/>
       <c r="B12" s="2">
         <v>8</v>
@@ -1967,7 +2078,7 @@
       <c r="AD12" s="91"/>
       <c r="AE12" s="26"/>
     </row>
-    <row r="13" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="101"/>
       <c r="B13" s="2">
         <v>9</v>
@@ -2002,7 +2113,7 @@
       <c r="AD13" s="91"/>
       <c r="AE13" s="26"/>
     </row>
-    <row r="14" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="101"/>
       <c r="B14" s="3">
         <v>10</v>
@@ -2037,7 +2148,7 @@
       <c r="AD14" s="90"/>
       <c r="AE14" s="19"/>
     </row>
-    <row r="15" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="102"/>
       <c r="B15" s="2">
         <v>11</v>
@@ -2128,7 +2239,7 @@
       </c>
       <c r="AE15" s="26"/>
     </row>
-    <row r="16" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="102"/>
       <c r="B16" s="2">
         <v>12</v>
@@ -2219,7 +2330,7 @@
       </c>
       <c r="AE16" s="26"/>
     </row>
-    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="102"/>
       <c r="B17" s="2">
         <v>13</v>
@@ -2310,7 +2421,7 @@
       </c>
       <c r="AE17" s="26"/>
     </row>
-    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="103"/>
       <c r="B18" s="3">
         <v>14</v>
@@ -2401,7 +2512,7 @@
       </c>
       <c r="AE18" s="26"/>
     </row>
-    <row r="19" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="103"/>
       <c r="B19" s="2">
         <v>15</v>
@@ -2492,7 +2603,7 @@
       </c>
       <c r="AE19" s="26"/>
     </row>
-    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="103"/>
       <c r="B20" s="2">
         <v>16</v>
@@ -2583,7 +2694,7 @@
       </c>
       <c r="AE20" s="26"/>
     </row>
-    <row r="21" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="103"/>
       <c r="B21" s="2">
         <v>17</v>
@@ -2674,7 +2785,7 @@
       </c>
       <c r="AE21" s="26"/>
     </row>
-    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="103"/>
       <c r="B22" s="3">
         <v>18</v>
@@ -2765,7 +2876,7 @@
       </c>
       <c r="AE22" s="26"/>
     </row>
-    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="103"/>
       <c r="B23" s="2">
         <v>19</v>
@@ -2856,7 +2967,7 @@
       </c>
       <c r="AE23" s="26"/>
     </row>
-    <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="103"/>
       <c r="B24" s="3">
         <v>20</v>
@@ -2947,7 +3058,7 @@
       </c>
       <c r="AE24" s="26"/>
     </row>
-    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="103"/>
       <c r="B25" s="2">
         <v>21</v>
@@ -2982,7 +3093,7 @@
       <c r="AD25" s="91"/>
       <c r="AE25" s="26"/>
     </row>
-    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="103"/>
       <c r="B26" s="3">
         <v>22</v>
@@ -3017,7 +3128,7 @@
       <c r="AD26" s="91"/>
       <c r="AE26" s="26"/>
     </row>
-    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="103"/>
       <c r="B27" s="2">
         <v>23</v>
@@ -3108,7 +3219,7 @@
       </c>
       <c r="AE27" s="26"/>
     </row>
-    <row r="28" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="104"/>
       <c r="B28" s="2">
         <v>24</v>
@@ -3199,7 +3310,7 @@
       </c>
       <c r="AE28" s="26"/>
     </row>
-    <row r="29" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="104"/>
       <c r="B29" s="2">
         <v>25</v>
@@ -3290,7 +3401,7 @@
       </c>
       <c r="AE29" s="26"/>
     </row>
-    <row r="30" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="104"/>
       <c r="B30" s="4">
         <v>26</v>
@@ -3381,7 +3492,7 @@
       </c>
       <c r="AE30" s="26"/>
     </row>
-    <row r="31" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="104"/>
       <c r="B31" s="2">
         <v>27</v>
@@ -3472,7 +3583,7 @@
       </c>
       <c r="AE31" s="26"/>
     </row>
-    <row r="32" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="104"/>
       <c r="B32" s="3">
         <v>28</v>
@@ -3563,7 +3674,7 @@
       </c>
       <c r="AE32" s="26"/>
     </row>
-    <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="104"/>
       <c r="B33" s="2">
         <v>29</v>
@@ -3654,7 +3765,7 @@
       </c>
       <c r="AE33" s="26"/>
     </row>
-    <row r="34" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="104"/>
       <c r="B34" s="3">
         <v>30</v>
@@ -3745,7 +3856,7 @@
       </c>
       <c r="AE34" s="26"/>
     </row>
-    <row r="35" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="104"/>
       <c r="B35" s="2">
         <v>31</v>
@@ -3836,7 +3947,7 @@
       </c>
       <c r="AE35" s="26"/>
     </row>
-    <row r="36" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="104"/>
       <c r="B36" s="3">
         <v>32</v>
@@ -3927,7 +4038,7 @@
       </c>
       <c r="AE36" s="26"/>
     </row>
-    <row r="37" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="104"/>
       <c r="B37" s="2">
         <v>33</v>
@@ -4018,7 +4129,7 @@
       </c>
       <c r="AE37" s="26"/>
     </row>
-    <row r="38" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="105"/>
       <c r="B38" s="2">
         <v>34</v>
@@ -4109,7 +4220,7 @@
       </c>
       <c r="AE38" s="26"/>
     </row>
-    <row r="39" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="105"/>
       <c r="B39" s="3">
         <v>35</v>
@@ -4200,7 +4311,7 @@
       </c>
       <c r="AE39" s="26"/>
     </row>
-    <row r="40" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="105"/>
       <c r="B40" s="2">
         <v>36</v>
@@ -4291,7 +4402,7 @@
       </c>
       <c r="AE40" s="26"/>
     </row>
-    <row r="41" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="105"/>
       <c r="B41" s="2">
         <v>37</v>
@@ -4382,7 +4493,7 @@
       </c>
       <c r="AE41" s="26"/>
     </row>
-    <row r="42" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="105"/>
       <c r="B42" s="3">
         <v>38</v>
@@ -4473,7 +4584,7 @@
       </c>
       <c r="AE42" s="26"/>
     </row>
-    <row r="43" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="105"/>
       <c r="B43" s="2">
         <v>39</v>
@@ -4564,7 +4675,7 @@
       </c>
       <c r="AE43" s="26"/>
     </row>
-    <row r="44" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="105"/>
       <c r="B44" s="3">
         <v>40</v>
@@ -4655,7 +4766,7 @@
       </c>
       <c r="AE44" s="26"/>
     </row>
-    <row r="45" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="105"/>
       <c r="B45" s="2">
         <v>41</v>
@@ -4746,7 +4857,7 @@
       </c>
       <c r="AE45" s="26"/>
     </row>
-    <row r="46" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="105"/>
       <c r="B46" s="3">
         <v>42</v>
@@ -4837,7 +4948,7 @@
       </c>
       <c r="AE46" s="26"/>
     </row>
-    <row r="47" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="105"/>
       <c r="B47" s="2">
         <v>43</v>
@@ -4928,7 +5039,7 @@
       </c>
       <c r="AE47" s="26"/>
     </row>
-    <row r="48" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="105"/>
       <c r="B48" s="3">
         <v>44</v>
@@ -5019,7 +5130,7 @@
       </c>
       <c r="AE48" s="26"/>
     </row>
-    <row r="49" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="105"/>
       <c r="B49" s="4">
         <v>45</v>
@@ -5110,7 +5221,7 @@
       </c>
       <c r="AE49" s="11"/>
     </row>
-    <row r="50" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
         <v>1</v>

--- a/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
+++ b/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1663,9 @@
       <c r="AD5" s="90">
         <v>5</v>
       </c>
-      <c r="AE5" s="19"/>
+      <c r="AE5" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="100"/>
@@ -1754,7 +1756,9 @@
       <c r="AD6" s="91">
         <v>5</v>
       </c>
-      <c r="AE6" s="26"/>
+      <c r="AE6" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100"/>
@@ -1950,7 +1954,9 @@
       <c r="AD10" s="91">
         <v>5</v>
       </c>
-      <c r="AE10" s="26"/>
+      <c r="AE10" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="101"/>
@@ -2041,77 +2047,195 @@
       <c r="AD11" s="91">
         <v>5</v>
       </c>
-      <c r="AE11" s="26"/>
+      <c r="AE11" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="101"/>
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="91"/>
-      <c r="AE12" s="26"/>
+      <c r="C12" s="35">
+        <v>5</v>
+      </c>
+      <c r="D12" s="40">
+        <v>5</v>
+      </c>
+      <c r="E12" s="45">
+        <v>5</v>
+      </c>
+      <c r="F12" s="20">
+        <v>15</v>
+      </c>
+      <c r="G12" s="50">
+        <v>5</v>
+      </c>
+      <c r="H12" s="54">
+        <v>5</v>
+      </c>
+      <c r="I12" s="54">
+        <v>5</v>
+      </c>
+      <c r="J12" s="54">
+        <v>5</v>
+      </c>
+      <c r="K12" s="21">
+        <v>20</v>
+      </c>
+      <c r="L12" s="58">
+        <v>5</v>
+      </c>
+      <c r="M12" s="62">
+        <v>5</v>
+      </c>
+      <c r="N12" s="62">
+        <v>5</v>
+      </c>
+      <c r="O12" s="22">
+        <v>15</v>
+      </c>
+      <c r="P12" s="67">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="71">
+        <v>5</v>
+      </c>
+      <c r="R12" s="71">
+        <v>5</v>
+      </c>
+      <c r="S12" s="71">
+        <v>5</v>
+      </c>
+      <c r="T12" s="23">
+        <v>20</v>
+      </c>
+      <c r="U12" s="75">
+        <v>5</v>
+      </c>
+      <c r="V12" s="79">
+        <v>5</v>
+      </c>
+      <c r="W12" s="79">
+        <v>5</v>
+      </c>
+      <c r="X12" s="24">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="83">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="87">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="87">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="87">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="25">
+        <v>20</v>
+      </c>
+      <c r="AD12" s="91">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="101"/>
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="91"/>
-      <c r="AE13" s="26"/>
+      <c r="C13" s="35">
+        <v>4</v>
+      </c>
+      <c r="D13" s="40">
+        <v>4</v>
+      </c>
+      <c r="E13" s="45">
+        <v>5</v>
+      </c>
+      <c r="F13" s="20">
+        <v>13</v>
+      </c>
+      <c r="G13" s="50">
+        <v>5</v>
+      </c>
+      <c r="H13" s="54">
+        <v>4</v>
+      </c>
+      <c r="I13" s="54">
+        <v>5</v>
+      </c>
+      <c r="J13" s="54">
+        <v>5</v>
+      </c>
+      <c r="K13" s="21">
+        <v>19</v>
+      </c>
+      <c r="L13" s="58">
+        <v>5</v>
+      </c>
+      <c r="M13" s="62">
+        <v>5</v>
+      </c>
+      <c r="N13" s="62">
+        <v>5</v>
+      </c>
+      <c r="O13" s="22">
+        <v>15</v>
+      </c>
+      <c r="P13" s="67">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="71">
+        <v>5</v>
+      </c>
+      <c r="R13" s="71">
+        <v>5</v>
+      </c>
+      <c r="S13" s="71">
+        <v>5</v>
+      </c>
+      <c r="T13" s="23">
+        <v>20</v>
+      </c>
+      <c r="U13" s="75">
+        <v>5</v>
+      </c>
+      <c r="V13" s="79">
+        <v>5</v>
+      </c>
+      <c r="W13" s="79">
+        <v>5</v>
+      </c>
+      <c r="X13" s="24">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="83">
+        <v>4</v>
+      </c>
+      <c r="Z13" s="87">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="87">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="87">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="25">
+        <v>16</v>
+      </c>
+      <c r="AD13" s="91">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="101"/>
@@ -2237,7 +2361,9 @@
       <c r="AD15" s="91">
         <v>5</v>
       </c>
-      <c r="AE15" s="26"/>
+      <c r="AE15" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="102"/>
@@ -2328,7 +2454,9 @@
       <c r="AD16" s="91">
         <v>4</v>
       </c>
-      <c r="AE16" s="26"/>
+      <c r="AE16" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="102"/>
@@ -2419,7 +2547,9 @@
       <c r="AD17" s="91">
         <v>5</v>
       </c>
-      <c r="AE17" s="26"/>
+      <c r="AE17" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="103"/>
@@ -2510,7 +2640,9 @@
       <c r="AD18" s="91">
         <v>5</v>
       </c>
-      <c r="AE18" s="26"/>
+      <c r="AE18" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="103"/>
@@ -2601,7 +2733,9 @@
       <c r="AD19" s="91">
         <v>5</v>
       </c>
-      <c r="AE19" s="26"/>
+      <c r="AE19" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="103"/>
@@ -2692,7 +2826,9 @@
       <c r="AD20" s="91">
         <v>5</v>
       </c>
-      <c r="AE20" s="26"/>
+      <c r="AE20" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="103"/>
@@ -2783,7 +2919,9 @@
       <c r="AD21" s="91">
         <v>5</v>
       </c>
-      <c r="AE21" s="26"/>
+      <c r="AE21" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="103"/>
@@ -2874,7 +3012,9 @@
       <c r="AD22" s="91">
         <v>5</v>
       </c>
-      <c r="AE22" s="26"/>
+      <c r="AE22" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="103"/>
@@ -2965,7 +3105,9 @@
       <c r="AD23" s="91">
         <v>5</v>
       </c>
-      <c r="AE23" s="26"/>
+      <c r="AE23" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="103"/>
@@ -3056,42 +3198,102 @@
       <c r="AD24" s="91">
         <v>5</v>
       </c>
-      <c r="AE24" s="26"/>
+      <c r="AE24" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="103"/>
       <c r="B25" s="2">
         <v>21</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="75"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="87"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="91"/>
-      <c r="AE25" s="26"/>
+      <c r="C25" s="35">
+        <v>5</v>
+      </c>
+      <c r="D25" s="40">
+        <v>5</v>
+      </c>
+      <c r="E25" s="45">
+        <v>5</v>
+      </c>
+      <c r="F25" s="20">
+        <v>15</v>
+      </c>
+      <c r="G25" s="50">
+        <v>5</v>
+      </c>
+      <c r="H25" s="54">
+        <v>5</v>
+      </c>
+      <c r="I25" s="54">
+        <v>5</v>
+      </c>
+      <c r="J25" s="54">
+        <v>5</v>
+      </c>
+      <c r="K25" s="21">
+        <v>20</v>
+      </c>
+      <c r="L25" s="58">
+        <v>5</v>
+      </c>
+      <c r="M25" s="62">
+        <v>5</v>
+      </c>
+      <c r="N25" s="62">
+        <v>5</v>
+      </c>
+      <c r="O25" s="22">
+        <v>15</v>
+      </c>
+      <c r="P25" s="67">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="71">
+        <v>5</v>
+      </c>
+      <c r="R25" s="71">
+        <v>5</v>
+      </c>
+      <c r="S25" s="71">
+        <v>5</v>
+      </c>
+      <c r="T25" s="23">
+        <v>20</v>
+      </c>
+      <c r="U25" s="75">
+        <v>5</v>
+      </c>
+      <c r="V25" s="79">
+        <v>5</v>
+      </c>
+      <c r="W25" s="79">
+        <v>5</v>
+      </c>
+      <c r="X25" s="24">
+        <v>15</v>
+      </c>
+      <c r="Y25" s="83">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="87">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="87">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="87">
+        <v>5</v>
+      </c>
+      <c r="AC25" s="25">
+        <v>20</v>
+      </c>
+      <c r="AD25" s="91">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="103"/>
@@ -3217,7 +3419,9 @@
       <c r="AD27" s="91">
         <v>5</v>
       </c>
-      <c r="AE27" s="26"/>
+      <c r="AE27" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="104"/>
@@ -3308,7 +3512,9 @@
       <c r="AD28" s="91">
         <v>5</v>
       </c>
-      <c r="AE28" s="26"/>
+      <c r="AE28" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="104"/>
@@ -3399,7 +3605,9 @@
       <c r="AD29" s="91">
         <v>4</v>
       </c>
-      <c r="AE29" s="26"/>
+      <c r="AE29" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="104"/>
@@ -3490,7 +3698,9 @@
       <c r="AD30" s="91">
         <v>4</v>
       </c>
-      <c r="AE30" s="26"/>
+      <c r="AE30" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="104"/>
@@ -3581,7 +3791,9 @@
       <c r="AD31" s="91">
         <v>5</v>
       </c>
-      <c r="AE31" s="26"/>
+      <c r="AE31" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="104"/>
@@ -3672,7 +3884,9 @@
       <c r="AD32" s="91">
         <v>5</v>
       </c>
-      <c r="AE32" s="26"/>
+      <c r="AE32" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="104"/>
@@ -3763,7 +3977,9 @@
       <c r="AD33" s="91">
         <v>5</v>
       </c>
-      <c r="AE33" s="26"/>
+      <c r="AE33" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="104"/>
@@ -3854,7 +4070,9 @@
       <c r="AD34" s="91">
         <v>5</v>
       </c>
-      <c r="AE34" s="26"/>
+      <c r="AE34" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="104"/>
@@ -3945,7 +4163,9 @@
       <c r="AD35" s="91">
         <v>5</v>
       </c>
-      <c r="AE35" s="26"/>
+      <c r="AE35" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="104"/>
@@ -4036,7 +4256,9 @@
       <c r="AD36" s="91">
         <v>5</v>
       </c>
-      <c r="AE36" s="26"/>
+      <c r="AE36" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="104"/>
@@ -4127,7 +4349,9 @@
       <c r="AD37" s="91">
         <v>4</v>
       </c>
-      <c r="AE37" s="26"/>
+      <c r="AE37" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="105"/>
@@ -4218,7 +4442,9 @@
       <c r="AD38" s="91">
         <v>4</v>
       </c>
-      <c r="AE38" s="26"/>
+      <c r="AE38" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="105"/>
@@ -4309,7 +4535,9 @@
       <c r="AD39" s="91">
         <v>5</v>
       </c>
-      <c r="AE39" s="26"/>
+      <c r="AE39" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="105"/>
@@ -4400,7 +4628,9 @@
       <c r="AD40" s="91">
         <v>5</v>
       </c>
-      <c r="AE40" s="26"/>
+      <c r="AE40" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="105"/>
@@ -4491,7 +4721,9 @@
       <c r="AD41" s="91">
         <v>5</v>
       </c>
-      <c r="AE41" s="26"/>
+      <c r="AE41" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="105"/>
@@ -4582,7 +4814,9 @@
       <c r="AD42" s="91">
         <v>5</v>
       </c>
-      <c r="AE42" s="26"/>
+      <c r="AE42" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="105"/>
@@ -4673,7 +4907,9 @@
       <c r="AD43" s="91">
         <v>5</v>
       </c>
-      <c r="AE43" s="26"/>
+      <c r="AE43" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="105"/>
@@ -4764,7 +5000,9 @@
       <c r="AD44" s="91">
         <v>5</v>
       </c>
-      <c r="AE44" s="26"/>
+      <c r="AE44" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="105"/>
@@ -4855,7 +5093,9 @@
       <c r="AD45" s="91">
         <v>5</v>
       </c>
-      <c r="AE45" s="26"/>
+      <c r="AE45" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="105"/>
@@ -4946,7 +5186,9 @@
       <c r="AD46" s="91">
         <v>5</v>
       </c>
-      <c r="AE46" s="26"/>
+      <c r="AE46" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="105"/>
@@ -5037,7 +5279,9 @@
       <c r="AD47" s="91">
         <v>5</v>
       </c>
-      <c r="AE47" s="26"/>
+      <c r="AE47" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="105"/>
@@ -5128,7 +5372,9 @@
       <c r="AD48" s="91">
         <v>4</v>
       </c>
-      <c r="AE48" s="26"/>
+      <c r="AE48" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="105"/>
@@ -5219,7 +5465,9 @@
       <c r="AD49" s="92">
         <v>4</v>
       </c>
-      <c r="AE49" s="11"/>
+      <c r="AE49" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="50" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>

--- a/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
+++ b/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB35" sqref="AB35"/>
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
+++ b/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,35 +2242,93 @@
       <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="19"/>
+      <c r="C14" s="36">
+        <v>5</v>
+      </c>
+      <c r="D14" s="41">
+        <v>5</v>
+      </c>
+      <c r="E14" s="46">
+        <v>5</v>
+      </c>
+      <c r="F14" s="13">
+        <v>15</v>
+      </c>
+      <c r="G14" s="49">
+        <v>5</v>
+      </c>
+      <c r="H14" s="53">
+        <v>5</v>
+      </c>
+      <c r="I14" s="53">
+        <v>5</v>
+      </c>
+      <c r="J14" s="53">
+        <v>5</v>
+      </c>
+      <c r="K14" s="14">
+        <v>20</v>
+      </c>
+      <c r="L14" s="57">
+        <v>5</v>
+      </c>
+      <c r="M14" s="61">
+        <v>5</v>
+      </c>
+      <c r="N14" s="61">
+        <v>5</v>
+      </c>
+      <c r="O14" s="15">
+        <v>15</v>
+      </c>
+      <c r="P14" s="66">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="70">
+        <v>5</v>
+      </c>
+      <c r="R14" s="70">
+        <v>5</v>
+      </c>
+      <c r="S14" s="70">
+        <v>5</v>
+      </c>
+      <c r="T14" s="16">
+        <v>20</v>
+      </c>
+      <c r="U14" s="74">
+        <v>5</v>
+      </c>
+      <c r="V14" s="78">
+        <v>5</v>
+      </c>
+      <c r="W14" s="78">
+        <v>5</v>
+      </c>
+      <c r="X14" s="17">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="82">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="86">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="86">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="86">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="18">
+        <v>20</v>
+      </c>
+      <c r="AD14" s="90">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="102"/>

--- a/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
+++ b/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,56 +1967,56 @@
         <v>4</v>
       </c>
       <c r="D11" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="20">
+        <v>11</v>
+      </c>
+      <c r="G11" s="50">
+        <v>3</v>
+      </c>
+      <c r="H11" s="54">
+        <v>4</v>
+      </c>
+      <c r="I11" s="54">
+        <v>4</v>
+      </c>
+      <c r="J11" s="54">
+        <v>4</v>
+      </c>
+      <c r="K11" s="21">
+        <v>15</v>
+      </c>
+      <c r="L11" s="58">
+        <v>4</v>
+      </c>
+      <c r="M11" s="62">
+        <v>4</v>
+      </c>
+      <c r="N11" s="62">
+        <v>5</v>
+      </c>
+      <c r="O11" s="22">
         <v>13</v>
       </c>
-      <c r="G11" s="50">
-        <v>5</v>
-      </c>
-      <c r="H11" s="54">
-        <v>4</v>
-      </c>
-      <c r="I11" s="54">
-        <v>5</v>
-      </c>
-      <c r="J11" s="54">
-        <v>5</v>
-      </c>
-      <c r="K11" s="21">
+      <c r="P11" s="67">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="71">
+        <v>5</v>
+      </c>
+      <c r="R11" s="71">
+        <v>5</v>
+      </c>
+      <c r="S11" s="71">
+        <v>5</v>
+      </c>
+      <c r="T11" s="23">
         <v>19</v>
       </c>
-      <c r="L11" s="58">
-        <v>5</v>
-      </c>
-      <c r="M11" s="62">
-        <v>5</v>
-      </c>
-      <c r="N11" s="62">
-        <v>5</v>
-      </c>
-      <c r="O11" s="22">
-        <v>15</v>
-      </c>
-      <c r="P11" s="67">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="71">
-        <v>5</v>
-      </c>
-      <c r="R11" s="71">
-        <v>5</v>
-      </c>
-      <c r="S11" s="71">
-        <v>5</v>
-      </c>
-      <c r="T11" s="23">
-        <v>20</v>
-      </c>
       <c r="U11" s="75">
         <v>5</v>
       </c>
@@ -2030,19 +2030,19 @@
         <v>15</v>
       </c>
       <c r="Y11" s="83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z11" s="87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA11" s="87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB11" s="87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC11" s="25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AD11" s="91">
         <v>5</v>

--- a/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
+++ b/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
@@ -958,6 +958,27 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="38" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="34" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="39" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="23" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="36" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="22" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="24" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="37" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="25" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="32" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="19" xfId="12" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,6 +1070,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1061,33 +1088,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="38" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="34" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="39" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="23" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="36" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="22" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="24" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="37" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="25" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="32" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="19" xfId="12" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
@@ -1380,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AM50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE51" sqref="AE51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,97 +1396,97 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="103" t="s">
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="109" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="116" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="130" t="s">
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="126" t="s">
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="122" t="s">
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="123"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115"/>
-      <c r="AK2" s="115"/>
-      <c r="AL2" s="115"/>
-      <c r="AM2" s="115"/>
+      <c r="AE2" s="138"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="131"/>
-      <c r="V3" s="131"/>
-      <c r="W3" s="131"/>
-      <c r="X3" s="131"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="125"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="115"/>
-      <c r="AK3" s="115"/>
-      <c r="AL3" s="115"/>
-      <c r="AM3" s="115"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="145"/>
+      <c r="Z3" s="146"/>
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="140"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="130"/>
+      <c r="AJ3" s="130"/>
+      <c r="AK3" s="130"/>
+      <c r="AL3" s="130"/>
+      <c r="AM3" s="130"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -1545,16 +1545,16 @@
       <c r="T4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="132">
+      <c r="U4" s="95">
         <v>1</v>
       </c>
-      <c r="V4" s="133">
+      <c r="V4" s="96">
         <v>2</v>
       </c>
-      <c r="W4" s="133">
+      <c r="W4" s="96">
         <v>3</v>
       </c>
-      <c r="X4" s="134" t="s">
+      <c r="X4" s="97" t="s">
         <v>4</v>
       </c>
       <c r="Y4" s="84">
@@ -1593,9 +1593,7 @@
       <c r="E5" s="40">
         <v>5</v>
       </c>
-      <c r="F5" s="11">
-        <v>14</v>
-      </c>
+      <c r="F5" s="11"/>
       <c r="G5" s="45">
         <v>5</v>
       </c>
@@ -1608,9 +1606,7 @@
       <c r="J5" s="49">
         <v>4</v>
       </c>
-      <c r="K5" s="13">
-        <v>18</v>
-      </c>
+      <c r="K5" s="13"/>
       <c r="L5" s="53">
         <v>5</v>
       </c>
@@ -1620,9 +1616,7 @@
       <c r="N5" s="57">
         <v>5</v>
       </c>
-      <c r="O5" s="14">
-        <v>15</v>
-      </c>
+      <c r="O5" s="14"/>
       <c r="P5" s="62">
         <v>4</v>
       </c>
@@ -1635,21 +1629,17 @@
       <c r="S5" s="66">
         <v>5</v>
       </c>
-      <c r="T5" s="15">
-        <v>19</v>
-      </c>
-      <c r="U5" s="135">
-        <v>5</v>
-      </c>
-      <c r="V5" s="136">
-        <v>5</v>
-      </c>
-      <c r="W5" s="136">
-        <v>5</v>
-      </c>
-      <c r="X5" s="137">
-        <v>15</v>
-      </c>
+      <c r="T5" s="15"/>
+      <c r="U5" s="98">
+        <v>5</v>
+      </c>
+      <c r="V5" s="99">
+        <v>5</v>
+      </c>
+      <c r="W5" s="99">
+        <v>5</v>
+      </c>
+      <c r="X5" s="100"/>
       <c r="Y5" s="70">
         <v>5</v>
       </c>
@@ -1662,15 +1652,11 @@
       <c r="AB5" s="74">
         <v>5</v>
       </c>
-      <c r="AC5" s="16">
-        <v>20</v>
-      </c>
+      <c r="AC5" s="16"/>
       <c r="AD5" s="78">
         <v>5</v>
       </c>
-      <c r="AE5" s="17">
-        <v>5</v>
-      </c>
+      <c r="AE5" s="17"/>
     </row>
     <row r="6" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="87"/>
@@ -1686,9 +1672,7 @@
       <c r="E6" s="41">
         <v>5</v>
       </c>
-      <c r="F6" s="18">
-        <v>14</v>
-      </c>
+      <c r="F6" s="18"/>
       <c r="G6" s="46">
         <v>4</v>
       </c>
@@ -1701,9 +1685,7 @@
       <c r="J6" s="50">
         <v>5</v>
       </c>
-      <c r="K6" s="19">
-        <v>18</v>
-      </c>
+      <c r="K6" s="19"/>
       <c r="L6" s="54">
         <v>5</v>
       </c>
@@ -1713,9 +1695,7 @@
       <c r="N6" s="58">
         <v>4</v>
       </c>
-      <c r="O6" s="20">
-        <v>14</v>
-      </c>
+      <c r="O6" s="20"/>
       <c r="P6" s="63">
         <v>5</v>
       </c>
@@ -1728,21 +1708,17 @@
       <c r="S6" s="67">
         <v>4</v>
       </c>
-      <c r="T6" s="21">
-        <v>18</v>
-      </c>
-      <c r="U6" s="138">
-        <v>5</v>
-      </c>
-      <c r="V6" s="139">
-        <v>5</v>
-      </c>
-      <c r="W6" s="139">
-        <v>4</v>
-      </c>
-      <c r="X6" s="140">
-        <v>14</v>
-      </c>
+      <c r="T6" s="21"/>
+      <c r="U6" s="101">
+        <v>5</v>
+      </c>
+      <c r="V6" s="102">
+        <v>5</v>
+      </c>
+      <c r="W6" s="102">
+        <v>4</v>
+      </c>
+      <c r="X6" s="103"/>
       <c r="Y6" s="71">
         <v>5</v>
       </c>
@@ -1755,15 +1731,11 @@
       <c r="AB6" s="75">
         <v>4</v>
       </c>
-      <c r="AC6" s="22">
-        <v>19</v>
-      </c>
+      <c r="AC6" s="22"/>
       <c r="AD6" s="79">
         <v>5</v>
       </c>
-      <c r="AE6" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE6" s="23"/>
     </row>
     <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="87"/>
@@ -1779,9 +1751,7 @@
       <c r="E7" s="42">
         <v>4</v>
       </c>
-      <c r="F7" s="12">
-        <v>14</v>
-      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="45">
         <v>5</v>
       </c>
@@ -1794,9 +1764,7 @@
       <c r="J7" s="49">
         <v>5</v>
       </c>
-      <c r="K7" s="13">
-        <v>20</v>
-      </c>
+      <c r="K7" s="13"/>
       <c r="L7" s="53">
         <v>5</v>
       </c>
@@ -1806,9 +1774,7 @@
       <c r="N7" s="57">
         <v>5</v>
       </c>
-      <c r="O7" s="14">
-        <v>14</v>
-      </c>
+      <c r="O7" s="14"/>
       <c r="P7" s="62">
         <v>5</v>
       </c>
@@ -1821,21 +1787,17 @@
       <c r="S7" s="66">
         <v>5</v>
       </c>
-      <c r="T7" s="15">
-        <v>20</v>
-      </c>
-      <c r="U7" s="135">
-        <v>5</v>
-      </c>
-      <c r="V7" s="136">
-        <v>5</v>
-      </c>
-      <c r="W7" s="136">
-        <v>5</v>
-      </c>
-      <c r="X7" s="137">
-        <v>15</v>
-      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="98">
+        <v>5</v>
+      </c>
+      <c r="V7" s="99">
+        <v>5</v>
+      </c>
+      <c r="W7" s="99">
+        <v>5</v>
+      </c>
+      <c r="X7" s="100"/>
       <c r="Y7" s="70">
         <v>5</v>
       </c>
@@ -1848,15 +1810,11 @@
       <c r="AB7" s="74">
         <v>5</v>
       </c>
-      <c r="AC7" s="16">
-        <v>20</v>
-      </c>
+      <c r="AC7" s="16"/>
       <c r="AD7" s="78">
         <v>5</v>
       </c>
-      <c r="AE7" s="17">
-        <v>5</v>
-      </c>
+      <c r="AE7" s="17"/>
     </row>
     <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="87"/>
@@ -1872,9 +1830,7 @@
       <c r="E8" s="41">
         <v>5</v>
       </c>
-      <c r="F8" s="18">
-        <v>15</v>
-      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="46">
         <v>5</v>
       </c>
@@ -1887,9 +1843,7 @@
       <c r="J8" s="50">
         <v>4</v>
       </c>
-      <c r="K8" s="19">
-        <v>19</v>
-      </c>
+      <c r="K8" s="19"/>
       <c r="L8" s="54">
         <v>5</v>
       </c>
@@ -1899,9 +1853,7 @@
       <c r="N8" s="58">
         <v>4</v>
       </c>
-      <c r="O8" s="20">
-        <v>14</v>
-      </c>
+      <c r="O8" s="20"/>
       <c r="P8" s="63">
         <v>5</v>
       </c>
@@ -1914,21 +1866,17 @@
       <c r="S8" s="67">
         <v>4</v>
       </c>
-      <c r="T8" s="21">
-        <v>19</v>
-      </c>
-      <c r="U8" s="138">
-        <v>5</v>
-      </c>
-      <c r="V8" s="139">
-        <v>5</v>
-      </c>
-      <c r="W8" s="139">
-        <v>5</v>
-      </c>
-      <c r="X8" s="140">
-        <v>15</v>
-      </c>
+      <c r="T8" s="21"/>
+      <c r="U8" s="101">
+        <v>5</v>
+      </c>
+      <c r="V8" s="102">
+        <v>5</v>
+      </c>
+      <c r="W8" s="102">
+        <v>5</v>
+      </c>
+      <c r="X8" s="103"/>
       <c r="Y8" s="71">
         <v>5</v>
       </c>
@@ -1941,15 +1889,11 @@
       <c r="AB8" s="75">
         <v>5</v>
       </c>
-      <c r="AC8" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC8" s="22"/>
       <c r="AD8" s="79">
         <v>5</v>
       </c>
-      <c r="AE8" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE8" s="23"/>
     </row>
     <row r="9" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
@@ -1965,9 +1909,7 @@
       <c r="E9" s="41">
         <v>5</v>
       </c>
-      <c r="F9" s="18">
-        <v>14</v>
-      </c>
+      <c r="F9" s="18"/>
       <c r="G9" s="46">
         <v>5</v>
       </c>
@@ -1980,9 +1922,7 @@
       <c r="J9" s="50">
         <v>5</v>
       </c>
-      <c r="K9" s="19">
-        <v>20</v>
-      </c>
+      <c r="K9" s="19"/>
       <c r="L9" s="54">
         <v>4</v>
       </c>
@@ -1992,9 +1932,7 @@
       <c r="N9" s="58">
         <v>5</v>
       </c>
-      <c r="O9" s="20">
-        <v>14</v>
-      </c>
+      <c r="O9" s="20"/>
       <c r="P9" s="63">
         <v>5</v>
       </c>
@@ -2007,21 +1945,17 @@
       <c r="S9" s="67">
         <v>5</v>
       </c>
-      <c r="T9" s="21">
-        <v>19</v>
-      </c>
-      <c r="U9" s="138">
-        <v>5</v>
-      </c>
-      <c r="V9" s="139">
-        <v>5</v>
-      </c>
-      <c r="W9" s="139">
-        <v>5</v>
-      </c>
-      <c r="X9" s="140">
-        <v>15</v>
-      </c>
+      <c r="T9" s="21"/>
+      <c r="U9" s="101">
+        <v>5</v>
+      </c>
+      <c r="V9" s="102">
+        <v>5</v>
+      </c>
+      <c r="W9" s="102">
+        <v>5</v>
+      </c>
+      <c r="X9" s="103"/>
       <c r="Y9" s="71">
         <v>5</v>
       </c>
@@ -2034,15 +1968,11 @@
       <c r="AB9" s="75">
         <v>4</v>
       </c>
-      <c r="AC9" s="22">
-        <v>18</v>
-      </c>
+      <c r="AC9" s="22"/>
       <c r="AD9" s="79">
         <v>5</v>
       </c>
-      <c r="AE9" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE9" s="23"/>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="88"/>
@@ -2058,9 +1988,7 @@
       <c r="E10" s="41">
         <v>5</v>
       </c>
-      <c r="F10" s="18">
-        <v>14</v>
-      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="46">
         <v>5</v>
       </c>
@@ -2073,9 +2001,7 @@
       <c r="J10" s="50">
         <v>5</v>
       </c>
-      <c r="K10" s="19">
-        <v>19</v>
-      </c>
+      <c r="K10" s="19"/>
       <c r="L10" s="54">
         <v>5</v>
       </c>
@@ -2085,9 +2011,7 @@
       <c r="N10" s="58">
         <v>5</v>
       </c>
-      <c r="O10" s="20">
-        <v>14</v>
-      </c>
+      <c r="O10" s="20"/>
       <c r="P10" s="63">
         <v>5</v>
       </c>
@@ -2100,21 +2024,17 @@
       <c r="S10" s="67">
         <v>5</v>
       </c>
-      <c r="T10" s="21">
-        <v>18</v>
-      </c>
-      <c r="U10" s="138">
-        <v>5</v>
-      </c>
-      <c r="V10" s="139">
-        <v>4</v>
-      </c>
-      <c r="W10" s="139">
-        <v>5</v>
-      </c>
-      <c r="X10" s="140">
-        <v>14</v>
-      </c>
+      <c r="T10" s="21"/>
+      <c r="U10" s="101">
+        <v>5</v>
+      </c>
+      <c r="V10" s="102">
+        <v>4</v>
+      </c>
+      <c r="W10" s="102">
+        <v>5</v>
+      </c>
+      <c r="X10" s="103"/>
       <c r="Y10" s="71">
         <v>5</v>
       </c>
@@ -2127,15 +2047,11 @@
       <c r="AB10" s="75">
         <v>5</v>
       </c>
-      <c r="AC10" s="22">
-        <v>18</v>
-      </c>
+      <c r="AC10" s="22"/>
       <c r="AD10" s="79">
         <v>5</v>
       </c>
-      <c r="AE10" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE10" s="23"/>
     </row>
     <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="88"/>
@@ -2151,9 +2067,7 @@
       <c r="E11" s="41">
         <v>4</v>
       </c>
-      <c r="F11" s="18">
-        <v>11</v>
-      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="46">
         <v>3</v>
       </c>
@@ -2166,9 +2080,7 @@
       <c r="J11" s="50">
         <v>4</v>
       </c>
-      <c r="K11" s="19">
-        <v>15</v>
-      </c>
+      <c r="K11" s="19"/>
       <c r="L11" s="54">
         <v>4</v>
       </c>
@@ -2178,9 +2090,7 @@
       <c r="N11" s="58">
         <v>5</v>
       </c>
-      <c r="O11" s="20">
-        <v>13</v>
-      </c>
+      <c r="O11" s="20"/>
       <c r="P11" s="63">
         <v>4</v>
       </c>
@@ -2193,21 +2103,17 @@
       <c r="S11" s="67">
         <v>5</v>
       </c>
-      <c r="T11" s="21">
-        <v>19</v>
-      </c>
-      <c r="U11" s="138">
-        <v>5</v>
-      </c>
-      <c r="V11" s="139">
-        <v>5</v>
-      </c>
-      <c r="W11" s="139">
-        <v>5</v>
-      </c>
-      <c r="X11" s="140">
-        <v>15</v>
-      </c>
+      <c r="T11" s="21"/>
+      <c r="U11" s="101">
+        <v>5</v>
+      </c>
+      <c r="V11" s="102">
+        <v>5</v>
+      </c>
+      <c r="W11" s="102">
+        <v>5</v>
+      </c>
+      <c r="X11" s="103"/>
       <c r="Y11" s="71">
         <v>5</v>
       </c>
@@ -2220,15 +2126,11 @@
       <c r="AB11" s="75">
         <v>5</v>
       </c>
-      <c r="AC11" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC11" s="22"/>
       <c r="AD11" s="79">
         <v>5</v>
       </c>
-      <c r="AE11" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE11" s="23"/>
     </row>
     <row r="12" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="88"/>
@@ -2244,9 +2146,7 @@
       <c r="E12" s="41">
         <v>5</v>
       </c>
-      <c r="F12" s="18">
-        <v>15</v>
-      </c>
+      <c r="F12" s="18"/>
       <c r="G12" s="46">
         <v>5</v>
       </c>
@@ -2259,9 +2159,7 @@
       <c r="J12" s="50">
         <v>5</v>
       </c>
-      <c r="K12" s="19">
-        <v>20</v>
-      </c>
+      <c r="K12" s="19"/>
       <c r="L12" s="54">
         <v>5</v>
       </c>
@@ -2271,9 +2169,7 @@
       <c r="N12" s="58">
         <v>5</v>
       </c>
-      <c r="O12" s="20">
-        <v>15</v>
-      </c>
+      <c r="O12" s="20"/>
       <c r="P12" s="63">
         <v>5</v>
       </c>
@@ -2286,21 +2182,17 @@
       <c r="S12" s="67">
         <v>5</v>
       </c>
-      <c r="T12" s="21">
-        <v>20</v>
-      </c>
-      <c r="U12" s="138">
-        <v>5</v>
-      </c>
-      <c r="V12" s="139">
-        <v>5</v>
-      </c>
-      <c r="W12" s="139">
-        <v>5</v>
-      </c>
-      <c r="X12" s="140">
-        <v>15</v>
-      </c>
+      <c r="T12" s="21"/>
+      <c r="U12" s="101">
+        <v>5</v>
+      </c>
+      <c r="V12" s="102">
+        <v>5</v>
+      </c>
+      <c r="W12" s="102">
+        <v>5</v>
+      </c>
+      <c r="X12" s="103"/>
       <c r="Y12" s="71">
         <v>5</v>
       </c>
@@ -2313,15 +2205,11 @@
       <c r="AB12" s="75">
         <v>5</v>
       </c>
-      <c r="AC12" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC12" s="22"/>
       <c r="AD12" s="79">
         <v>5</v>
       </c>
-      <c r="AE12" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE12" s="23"/>
     </row>
     <row r="13" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="88"/>
@@ -2337,9 +2225,7 @@
       <c r="E13" s="41">
         <v>5</v>
       </c>
-      <c r="F13" s="18">
-        <v>13</v>
-      </c>
+      <c r="F13" s="18"/>
       <c r="G13" s="46">
         <v>5</v>
       </c>
@@ -2352,9 +2238,7 @@
       <c r="J13" s="50">
         <v>5</v>
       </c>
-      <c r="K13" s="19">
-        <v>19</v>
-      </c>
+      <c r="K13" s="19"/>
       <c r="L13" s="54">
         <v>5</v>
       </c>
@@ -2364,9 +2248,7 @@
       <c r="N13" s="58">
         <v>5</v>
       </c>
-      <c r="O13" s="20">
-        <v>15</v>
-      </c>
+      <c r="O13" s="20"/>
       <c r="P13" s="63">
         <v>5</v>
       </c>
@@ -2379,21 +2261,17 @@
       <c r="S13" s="67">
         <v>5</v>
       </c>
-      <c r="T13" s="21">
-        <v>20</v>
-      </c>
-      <c r="U13" s="138">
-        <v>5</v>
-      </c>
-      <c r="V13" s="139">
-        <v>5</v>
-      </c>
-      <c r="W13" s="139">
-        <v>5</v>
-      </c>
-      <c r="X13" s="140">
-        <v>15</v>
-      </c>
+      <c r="T13" s="21"/>
+      <c r="U13" s="101">
+        <v>5</v>
+      </c>
+      <c r="V13" s="102">
+        <v>5</v>
+      </c>
+      <c r="W13" s="102">
+        <v>5</v>
+      </c>
+      <c r="X13" s="103"/>
       <c r="Y13" s="71">
         <v>4</v>
       </c>
@@ -2406,15 +2284,11 @@
       <c r="AB13" s="75">
         <v>4</v>
       </c>
-      <c r="AC13" s="22">
-        <v>16</v>
-      </c>
+      <c r="AC13" s="22"/>
       <c r="AD13" s="79">
         <v>5</v>
       </c>
-      <c r="AE13" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE13" s="23"/>
     </row>
     <row r="14" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="88"/>
@@ -2430,9 +2304,7 @@
       <c r="E14" s="42">
         <v>5</v>
       </c>
-      <c r="F14" s="12">
-        <v>15</v>
-      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="45">
         <v>5</v>
       </c>
@@ -2445,9 +2317,7 @@
       <c r="J14" s="49">
         <v>5</v>
       </c>
-      <c r="K14" s="13">
-        <v>20</v>
-      </c>
+      <c r="K14" s="13"/>
       <c r="L14" s="53">
         <v>5</v>
       </c>
@@ -2457,9 +2327,7 @@
       <c r="N14" s="57">
         <v>5</v>
       </c>
-      <c r="O14" s="14">
-        <v>15</v>
-      </c>
+      <c r="O14" s="14"/>
       <c r="P14" s="62">
         <v>5</v>
       </c>
@@ -2472,21 +2340,17 @@
       <c r="S14" s="66">
         <v>5</v>
       </c>
-      <c r="T14" s="15">
-        <v>20</v>
-      </c>
-      <c r="U14" s="135">
-        <v>5</v>
-      </c>
-      <c r="V14" s="136">
-        <v>5</v>
-      </c>
-      <c r="W14" s="136">
-        <v>5</v>
-      </c>
-      <c r="X14" s="137">
-        <v>15</v>
-      </c>
+      <c r="T14" s="15"/>
+      <c r="U14" s="98">
+        <v>5</v>
+      </c>
+      <c r="V14" s="99">
+        <v>5</v>
+      </c>
+      <c r="W14" s="99">
+        <v>5</v>
+      </c>
+      <c r="X14" s="100"/>
       <c r="Y14" s="70">
         <v>5</v>
       </c>
@@ -2499,15 +2363,11 @@
       <c r="AB14" s="74">
         <v>5</v>
       </c>
-      <c r="AC14" s="16">
-        <v>20</v>
-      </c>
+      <c r="AC14" s="16"/>
       <c r="AD14" s="78">
         <v>5</v>
       </c>
-      <c r="AE14" s="17">
-        <v>5</v>
-      </c>
+      <c r="AE14" s="17"/>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="89"/>
@@ -2523,9 +2383,7 @@
       <c r="E15" s="41">
         <v>5</v>
       </c>
-      <c r="F15" s="18">
-        <v>13</v>
-      </c>
+      <c r="F15" s="18"/>
       <c r="G15" s="46">
         <v>2</v>
       </c>
@@ -2538,9 +2396,7 @@
       <c r="J15" s="50">
         <v>4</v>
       </c>
-      <c r="K15" s="19">
-        <v>14</v>
-      </c>
+      <c r="K15" s="19"/>
       <c r="L15" s="54">
         <v>4</v>
       </c>
@@ -2550,9 +2406,7 @@
       <c r="N15" s="58">
         <v>4</v>
       </c>
-      <c r="O15" s="20">
-        <v>12</v>
-      </c>
+      <c r="O15" s="20"/>
       <c r="P15" s="63">
         <v>5</v>
       </c>
@@ -2565,21 +2419,17 @@
       <c r="S15" s="67">
         <v>4</v>
       </c>
-      <c r="T15" s="21">
-        <v>18</v>
-      </c>
-      <c r="U15" s="138">
-        <v>5</v>
-      </c>
-      <c r="V15" s="139">
-        <v>5</v>
-      </c>
-      <c r="W15" s="139">
-        <v>5</v>
-      </c>
-      <c r="X15" s="140">
-        <v>15</v>
-      </c>
+      <c r="T15" s="21"/>
+      <c r="U15" s="101">
+        <v>5</v>
+      </c>
+      <c r="V15" s="102">
+        <v>5</v>
+      </c>
+      <c r="W15" s="102">
+        <v>5</v>
+      </c>
+      <c r="X15" s="103"/>
       <c r="Y15" s="71">
         <v>5</v>
       </c>
@@ -2592,15 +2442,11 @@
       <c r="AB15" s="75">
         <v>5</v>
       </c>
-      <c r="AC15" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC15" s="22"/>
       <c r="AD15" s="79">
         <v>5</v>
       </c>
-      <c r="AE15" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE15" s="23"/>
     </row>
     <row r="16" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="89"/>
@@ -2616,9 +2462,7 @@
       <c r="E16" s="41">
         <v>4</v>
       </c>
-      <c r="F16" s="18">
-        <v>12</v>
-      </c>
+      <c r="F16" s="18"/>
       <c r="G16" s="46">
         <v>4</v>
       </c>
@@ -2631,9 +2475,7 @@
       <c r="J16" s="50">
         <v>4</v>
       </c>
-      <c r="K16" s="19">
-        <v>16</v>
-      </c>
+      <c r="K16" s="19"/>
       <c r="L16" s="54">
         <v>4</v>
       </c>
@@ -2643,9 +2485,7 @@
       <c r="N16" s="58">
         <v>4</v>
       </c>
-      <c r="O16" s="20">
-        <v>12</v>
-      </c>
+      <c r="O16" s="20"/>
       <c r="P16" s="63">
         <v>4</v>
       </c>
@@ -2658,21 +2498,17 @@
       <c r="S16" s="67">
         <v>4</v>
       </c>
-      <c r="T16" s="21">
-        <v>16</v>
-      </c>
-      <c r="U16" s="138">
-        <v>4</v>
-      </c>
-      <c r="V16" s="139">
-        <v>4</v>
-      </c>
-      <c r="W16" s="139">
-        <v>4</v>
-      </c>
-      <c r="X16" s="140">
-        <v>12</v>
-      </c>
+      <c r="T16" s="21"/>
+      <c r="U16" s="101">
+        <v>4</v>
+      </c>
+      <c r="V16" s="102">
+        <v>4</v>
+      </c>
+      <c r="W16" s="102">
+        <v>4</v>
+      </c>
+      <c r="X16" s="103"/>
       <c r="Y16" s="71">
         <v>5</v>
       </c>
@@ -2685,15 +2521,11 @@
       <c r="AB16" s="75">
         <v>5</v>
       </c>
-      <c r="AC16" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC16" s="22"/>
       <c r="AD16" s="79">
         <v>4</v>
       </c>
-      <c r="AE16" s="23">
-        <v>4</v>
-      </c>
+      <c r="AE16" s="23"/>
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="89"/>
@@ -2709,9 +2541,7 @@
       <c r="E17" s="41">
         <v>5</v>
       </c>
-      <c r="F17" s="18">
-        <v>14</v>
-      </c>
+      <c r="F17" s="18"/>
       <c r="G17" s="46">
         <v>5</v>
       </c>
@@ -2724,9 +2554,7 @@
       <c r="J17" s="50">
         <v>4</v>
       </c>
-      <c r="K17" s="19">
-        <v>18</v>
-      </c>
+      <c r="K17" s="19"/>
       <c r="L17" s="54">
         <v>4</v>
       </c>
@@ -2736,9 +2564,7 @@
       <c r="N17" s="58">
         <v>5</v>
       </c>
-      <c r="O17" s="20">
-        <v>13</v>
-      </c>
+      <c r="O17" s="20"/>
       <c r="P17" s="63">
         <v>4</v>
       </c>
@@ -2751,21 +2577,17 @@
       <c r="S17" s="67">
         <v>5</v>
       </c>
-      <c r="T17" s="21">
-        <v>19</v>
-      </c>
-      <c r="U17" s="138">
-        <v>4</v>
-      </c>
-      <c r="V17" s="139">
-        <v>5</v>
-      </c>
-      <c r="W17" s="139">
-        <v>4</v>
-      </c>
-      <c r="X17" s="140">
-        <v>13</v>
-      </c>
+      <c r="T17" s="21"/>
+      <c r="U17" s="101">
+        <v>4</v>
+      </c>
+      <c r="V17" s="102">
+        <v>5</v>
+      </c>
+      <c r="W17" s="102">
+        <v>4</v>
+      </c>
+      <c r="X17" s="103"/>
       <c r="Y17" s="71">
         <v>5</v>
       </c>
@@ -2778,15 +2600,11 @@
       <c r="AB17" s="75">
         <v>5</v>
       </c>
-      <c r="AC17" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC17" s="22"/>
       <c r="AD17" s="79">
         <v>5</v>
       </c>
-      <c r="AE17" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE17" s="23"/>
     </row>
     <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="90"/>
@@ -2802,9 +2620,7 @@
       <c r="E18" s="41">
         <v>3</v>
       </c>
-      <c r="F18" s="18">
-        <v>10</v>
-      </c>
+      <c r="F18" s="18"/>
       <c r="G18" s="46">
         <v>5</v>
       </c>
@@ -2817,9 +2633,7 @@
       <c r="J18" s="50">
         <v>5</v>
       </c>
-      <c r="K18" s="19">
-        <v>19</v>
-      </c>
+      <c r="K18" s="19"/>
       <c r="L18" s="54">
         <v>5</v>
       </c>
@@ -2829,9 +2643,7 @@
       <c r="N18" s="58">
         <v>5</v>
       </c>
-      <c r="O18" s="20">
-        <v>15</v>
-      </c>
+      <c r="O18" s="20"/>
       <c r="P18" s="63">
         <v>5</v>
       </c>
@@ -2844,21 +2656,17 @@
       <c r="S18" s="67">
         <v>3</v>
       </c>
-      <c r="T18" s="21">
-        <v>17</v>
-      </c>
-      <c r="U18" s="138">
-        <v>5</v>
-      </c>
-      <c r="V18" s="139">
-        <v>5</v>
-      </c>
-      <c r="W18" s="139">
-        <v>4</v>
-      </c>
-      <c r="X18" s="140">
-        <v>14</v>
-      </c>
+      <c r="T18" s="21"/>
+      <c r="U18" s="101">
+        <v>5</v>
+      </c>
+      <c r="V18" s="102">
+        <v>5</v>
+      </c>
+      <c r="W18" s="102">
+        <v>4</v>
+      </c>
+      <c r="X18" s="103"/>
       <c r="Y18" s="71">
         <v>5</v>
       </c>
@@ -2871,15 +2679,11 @@
       <c r="AB18" s="75">
         <v>5</v>
       </c>
-      <c r="AC18" s="22">
-        <v>19</v>
-      </c>
+      <c r="AC18" s="22"/>
       <c r="AD18" s="79">
         <v>5</v>
       </c>
-      <c r="AE18" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE18" s="23"/>
     </row>
     <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="90"/>
@@ -2895,9 +2699,7 @@
       <c r="E19" s="41">
         <v>5</v>
       </c>
-      <c r="F19" s="18">
-        <v>15</v>
-      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="46">
         <v>5</v>
       </c>
@@ -2910,9 +2712,7 @@
       <c r="J19" s="50">
         <v>5</v>
       </c>
-      <c r="K19" s="19">
-        <v>20</v>
-      </c>
+      <c r="K19" s="19"/>
       <c r="L19" s="54">
         <v>5</v>
       </c>
@@ -2922,9 +2722,7 @@
       <c r="N19" s="58">
         <v>5</v>
       </c>
-      <c r="O19" s="20">
-        <v>15</v>
-      </c>
+      <c r="O19" s="20"/>
       <c r="P19" s="63">
         <v>5</v>
       </c>
@@ -2937,21 +2735,17 @@
       <c r="S19" s="67">
         <v>5</v>
       </c>
-      <c r="T19" s="21">
-        <v>20</v>
-      </c>
-      <c r="U19" s="138">
-        <v>5</v>
-      </c>
-      <c r="V19" s="139">
-        <v>5</v>
-      </c>
-      <c r="W19" s="139">
-        <v>5</v>
-      </c>
-      <c r="X19" s="140">
-        <v>15</v>
-      </c>
+      <c r="T19" s="21"/>
+      <c r="U19" s="101">
+        <v>5</v>
+      </c>
+      <c r="V19" s="102">
+        <v>5</v>
+      </c>
+      <c r="W19" s="102">
+        <v>5</v>
+      </c>
+      <c r="X19" s="103"/>
       <c r="Y19" s="71">
         <v>5</v>
       </c>
@@ -2964,15 +2758,11 @@
       <c r="AB19" s="75">
         <v>5</v>
       </c>
-      <c r="AC19" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC19" s="22"/>
       <c r="AD19" s="79">
         <v>5</v>
       </c>
-      <c r="AE19" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE19" s="23"/>
     </row>
     <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
@@ -2988,9 +2778,7 @@
       <c r="E20" s="41">
         <v>5</v>
       </c>
-      <c r="F20" s="18">
-        <v>15</v>
-      </c>
+      <c r="F20" s="18"/>
       <c r="G20" s="46">
         <v>5</v>
       </c>
@@ -3003,9 +2791,7 @@
       <c r="J20" s="50">
         <v>5</v>
       </c>
-      <c r="K20" s="19">
-        <v>20</v>
-      </c>
+      <c r="K20" s="19"/>
       <c r="L20" s="54">
         <v>5</v>
       </c>
@@ -3015,9 +2801,7 @@
       <c r="N20" s="58">
         <v>5</v>
       </c>
-      <c r="O20" s="20">
-        <v>15</v>
-      </c>
+      <c r="O20" s="20"/>
       <c r="P20" s="63">
         <v>5</v>
       </c>
@@ -3030,21 +2814,17 @@
       <c r="S20" s="67">
         <v>5</v>
       </c>
-      <c r="T20" s="21">
-        <v>20</v>
-      </c>
-      <c r="U20" s="138">
-        <v>5</v>
-      </c>
-      <c r="V20" s="139">
-        <v>5</v>
-      </c>
-      <c r="W20" s="139">
-        <v>5</v>
-      </c>
-      <c r="X20" s="140">
-        <v>15</v>
-      </c>
+      <c r="T20" s="21"/>
+      <c r="U20" s="101">
+        <v>5</v>
+      </c>
+      <c r="V20" s="102">
+        <v>5</v>
+      </c>
+      <c r="W20" s="102">
+        <v>5</v>
+      </c>
+      <c r="X20" s="103"/>
       <c r="Y20" s="71">
         <v>5</v>
       </c>
@@ -3057,15 +2837,11 @@
       <c r="AB20" s="75">
         <v>5</v>
       </c>
-      <c r="AC20" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC20" s="22"/>
       <c r="AD20" s="79">
         <v>5</v>
       </c>
-      <c r="AE20" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE20" s="23"/>
     </row>
     <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="90"/>
@@ -3081,9 +2857,7 @@
       <c r="E21" s="41">
         <v>5</v>
       </c>
-      <c r="F21" s="18">
-        <v>15</v>
-      </c>
+      <c r="F21" s="18"/>
       <c r="G21" s="46">
         <v>5</v>
       </c>
@@ -3096,9 +2870,7 @@
       <c r="J21" s="50">
         <v>5</v>
       </c>
-      <c r="K21" s="19">
-        <v>20</v>
-      </c>
+      <c r="K21" s="19"/>
       <c r="L21" s="54">
         <v>5</v>
       </c>
@@ -3108,9 +2880,7 @@
       <c r="N21" s="58">
         <v>5</v>
       </c>
-      <c r="O21" s="20">
-        <v>15</v>
-      </c>
+      <c r="O21" s="20"/>
       <c r="P21" s="63">
         <v>5</v>
       </c>
@@ -3123,21 +2893,17 @@
       <c r="S21" s="67">
         <v>5</v>
       </c>
-      <c r="T21" s="21">
-        <v>20</v>
-      </c>
-      <c r="U21" s="138">
-        <v>5</v>
-      </c>
-      <c r="V21" s="139">
-        <v>5</v>
-      </c>
-      <c r="W21" s="139">
-        <v>5</v>
-      </c>
-      <c r="X21" s="140">
-        <v>15</v>
-      </c>
+      <c r="T21" s="21"/>
+      <c r="U21" s="101">
+        <v>5</v>
+      </c>
+      <c r="V21" s="102">
+        <v>5</v>
+      </c>
+      <c r="W21" s="102">
+        <v>5</v>
+      </c>
+      <c r="X21" s="103"/>
       <c r="Y21" s="71">
         <v>5</v>
       </c>
@@ -3150,15 +2916,11 @@
       <c r="AB21" s="75">
         <v>5</v>
       </c>
-      <c r="AC21" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC21" s="22"/>
       <c r="AD21" s="79">
         <v>5</v>
       </c>
-      <c r="AE21" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE21" s="23"/>
     </row>
     <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="90"/>
@@ -3174,9 +2936,7 @@
       <c r="E22" s="41">
         <v>5</v>
       </c>
-      <c r="F22" s="18">
-        <v>15</v>
-      </c>
+      <c r="F22" s="18"/>
       <c r="G22" s="46">
         <v>5</v>
       </c>
@@ -3189,9 +2949,7 @@
       <c r="J22" s="50">
         <v>5</v>
       </c>
-      <c r="K22" s="19">
-        <v>20</v>
-      </c>
+      <c r="K22" s="19"/>
       <c r="L22" s="54">
         <v>5</v>
       </c>
@@ -3201,9 +2959,7 @@
       <c r="N22" s="58">
         <v>5</v>
       </c>
-      <c r="O22" s="20">
-        <v>15</v>
-      </c>
+      <c r="O22" s="20"/>
       <c r="P22" s="63">
         <v>5</v>
       </c>
@@ -3216,21 +2972,17 @@
       <c r="S22" s="67">
         <v>5</v>
       </c>
-      <c r="T22" s="21">
-        <v>20</v>
-      </c>
-      <c r="U22" s="138">
-        <v>5</v>
-      </c>
-      <c r="V22" s="139">
-        <v>5</v>
-      </c>
-      <c r="W22" s="139">
-        <v>5</v>
-      </c>
-      <c r="X22" s="140">
-        <v>15</v>
-      </c>
+      <c r="T22" s="21"/>
+      <c r="U22" s="101">
+        <v>5</v>
+      </c>
+      <c r="V22" s="102">
+        <v>5</v>
+      </c>
+      <c r="W22" s="102">
+        <v>5</v>
+      </c>
+      <c r="X22" s="103"/>
       <c r="Y22" s="71">
         <v>5</v>
       </c>
@@ -3243,15 +2995,11 @@
       <c r="AB22" s="75">
         <v>5</v>
       </c>
-      <c r="AC22" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC22" s="22"/>
       <c r="AD22" s="79">
         <v>5</v>
       </c>
-      <c r="AE22" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE22" s="23"/>
     </row>
     <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="90"/>
@@ -3267,9 +3015,7 @@
       <c r="E23" s="41">
         <v>5</v>
       </c>
-      <c r="F23" s="18">
-        <v>15</v>
-      </c>
+      <c r="F23" s="18"/>
       <c r="G23" s="46">
         <v>5</v>
       </c>
@@ -3282,9 +3028,7 @@
       <c r="J23" s="50">
         <v>5</v>
       </c>
-      <c r="K23" s="19">
-        <v>20</v>
-      </c>
+      <c r="K23" s="19"/>
       <c r="L23" s="54">
         <v>5</v>
       </c>
@@ -3294,9 +3038,7 @@
       <c r="N23" s="58">
         <v>5</v>
       </c>
-      <c r="O23" s="20">
-        <v>15</v>
-      </c>
+      <c r="O23" s="20"/>
       <c r="P23" s="63">
         <v>5</v>
       </c>
@@ -3309,21 +3051,17 @@
       <c r="S23" s="67">
         <v>5</v>
       </c>
-      <c r="T23" s="21">
-        <v>20</v>
-      </c>
-      <c r="U23" s="138">
-        <v>5</v>
-      </c>
-      <c r="V23" s="139">
-        <v>5</v>
-      </c>
-      <c r="W23" s="139">
-        <v>5</v>
-      </c>
-      <c r="X23" s="140">
-        <v>15</v>
-      </c>
+      <c r="T23" s="21"/>
+      <c r="U23" s="101">
+        <v>5</v>
+      </c>
+      <c r="V23" s="102">
+        <v>5</v>
+      </c>
+      <c r="W23" s="102">
+        <v>5</v>
+      </c>
+      <c r="X23" s="103"/>
       <c r="Y23" s="71">
         <v>5</v>
       </c>
@@ -3336,15 +3074,11 @@
       <c r="AB23" s="75">
         <v>5</v>
       </c>
-      <c r="AC23" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC23" s="22"/>
       <c r="AD23" s="79">
         <v>5</v>
       </c>
-      <c r="AE23" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE23" s="23"/>
     </row>
     <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="90"/>
@@ -3360,9 +3094,7 @@
       <c r="E24" s="41">
         <v>5</v>
       </c>
-      <c r="F24" s="18">
-        <v>15</v>
-      </c>
+      <c r="F24" s="18"/>
       <c r="G24" s="46">
         <v>4</v>
       </c>
@@ -3375,9 +3107,7 @@
       <c r="J24" s="50">
         <v>5</v>
       </c>
-      <c r="K24" s="19">
-        <v>16</v>
-      </c>
+      <c r="K24" s="19"/>
       <c r="L24" s="54">
         <v>5</v>
       </c>
@@ -3387,9 +3117,7 @@
       <c r="N24" s="58">
         <v>5</v>
       </c>
-      <c r="O24" s="20">
-        <v>14</v>
-      </c>
+      <c r="O24" s="20"/>
       <c r="P24" s="63">
         <v>5</v>
       </c>
@@ -3402,21 +3130,17 @@
       <c r="S24" s="67">
         <v>4</v>
       </c>
-      <c r="T24" s="21">
-        <v>18</v>
-      </c>
-      <c r="U24" s="138">
-        <v>4</v>
-      </c>
-      <c r="V24" s="139">
-        <v>5</v>
-      </c>
-      <c r="W24" s="139">
-        <v>5</v>
-      </c>
-      <c r="X24" s="140">
-        <v>14</v>
-      </c>
+      <c r="T24" s="21"/>
+      <c r="U24" s="101">
+        <v>4</v>
+      </c>
+      <c r="V24" s="102">
+        <v>5</v>
+      </c>
+      <c r="W24" s="102">
+        <v>5</v>
+      </c>
+      <c r="X24" s="103"/>
       <c r="Y24" s="71">
         <v>5</v>
       </c>
@@ -3429,15 +3153,11 @@
       <c r="AB24" s="75">
         <v>4</v>
       </c>
-      <c r="AC24" s="22">
-        <v>17</v>
-      </c>
+      <c r="AC24" s="22"/>
       <c r="AD24" s="79">
         <v>5</v>
       </c>
-      <c r="AE24" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE24" s="23"/>
     </row>
     <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="90"/>
@@ -3453,9 +3173,7 @@
       <c r="E25" s="41">
         <v>5</v>
       </c>
-      <c r="F25" s="18">
-        <v>15</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="46">
         <v>5</v>
       </c>
@@ -3468,9 +3186,7 @@
       <c r="J25" s="50">
         <v>5</v>
       </c>
-      <c r="K25" s="19">
-        <v>20</v>
-      </c>
+      <c r="K25" s="19"/>
       <c r="L25" s="54">
         <v>5</v>
       </c>
@@ -3480,9 +3196,7 @@
       <c r="N25" s="58">
         <v>5</v>
       </c>
-      <c r="O25" s="20">
-        <v>15</v>
-      </c>
+      <c r="O25" s="20"/>
       <c r="P25" s="63">
         <v>5</v>
       </c>
@@ -3495,21 +3209,17 @@
       <c r="S25" s="67">
         <v>5</v>
       </c>
-      <c r="T25" s="21">
-        <v>20</v>
-      </c>
-      <c r="U25" s="138">
-        <v>5</v>
-      </c>
-      <c r="V25" s="139">
-        <v>5</v>
-      </c>
-      <c r="W25" s="139">
-        <v>5</v>
-      </c>
-      <c r="X25" s="140">
-        <v>15</v>
-      </c>
+      <c r="T25" s="21"/>
+      <c r="U25" s="101">
+        <v>5</v>
+      </c>
+      <c r="V25" s="102">
+        <v>5</v>
+      </c>
+      <c r="W25" s="102">
+        <v>5</v>
+      </c>
+      <c r="X25" s="103"/>
       <c r="Y25" s="71">
         <v>5</v>
       </c>
@@ -3522,15 +3232,11 @@
       <c r="AB25" s="75">
         <v>5</v>
       </c>
-      <c r="AC25" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC25" s="22"/>
       <c r="AD25" s="79">
         <v>5</v>
       </c>
-      <c r="AE25" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE25" s="23"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="90"/>
@@ -3546,9 +3252,7 @@
       <c r="E26" s="41">
         <v>4</v>
       </c>
-      <c r="F26" s="18">
-        <v>14</v>
-      </c>
+      <c r="F26" s="18"/>
       <c r="G26" s="46">
         <v>5</v>
       </c>
@@ -3561,9 +3265,7 @@
       <c r="J26" s="50">
         <v>5</v>
       </c>
-      <c r="K26" s="19">
-        <v>20</v>
-      </c>
+      <c r="K26" s="19"/>
       <c r="L26" s="54">
         <v>5</v>
       </c>
@@ -3573,9 +3275,7 @@
       <c r="N26" s="58">
         <v>5</v>
       </c>
-      <c r="O26" s="20">
-        <v>14</v>
-      </c>
+      <c r="O26" s="20"/>
       <c r="P26" s="63">
         <v>5</v>
       </c>
@@ -3588,21 +3288,17 @@
       <c r="S26" s="67">
         <v>5</v>
       </c>
-      <c r="T26" s="21">
-        <v>19</v>
-      </c>
-      <c r="U26" s="138">
-        <v>5</v>
-      </c>
-      <c r="V26" s="139">
-        <v>5</v>
-      </c>
-      <c r="W26" s="139">
-        <v>4</v>
-      </c>
-      <c r="X26" s="140">
-        <v>14</v>
-      </c>
+      <c r="T26" s="21"/>
+      <c r="U26" s="101">
+        <v>5</v>
+      </c>
+      <c r="V26" s="102">
+        <v>5</v>
+      </c>
+      <c r="W26" s="102">
+        <v>4</v>
+      </c>
+      <c r="X26" s="103"/>
       <c r="Y26" s="71">
         <v>5</v>
       </c>
@@ -3615,15 +3311,11 @@
       <c r="AB26" s="75">
         <v>5</v>
       </c>
-      <c r="AC26" s="22">
-        <v>19</v>
-      </c>
+      <c r="AC26" s="22"/>
       <c r="AD26" s="79">
         <v>5</v>
       </c>
-      <c r="AE26" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE26" s="23"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
@@ -3639,9 +3331,7 @@
       <c r="E27" s="41">
         <v>5</v>
       </c>
-      <c r="F27" s="18">
-        <v>15</v>
-      </c>
+      <c r="F27" s="18"/>
       <c r="G27" s="46">
         <v>5</v>
       </c>
@@ -3654,9 +3344,7 @@
       <c r="J27" s="50">
         <v>5</v>
       </c>
-      <c r="K27" s="19">
-        <v>20</v>
-      </c>
+      <c r="K27" s="19"/>
       <c r="L27" s="54">
         <v>5</v>
       </c>
@@ -3666,9 +3354,7 @@
       <c r="N27" s="58">
         <v>5</v>
       </c>
-      <c r="O27" s="20">
-        <v>15</v>
-      </c>
+      <c r="O27" s="20"/>
       <c r="P27" s="63">
         <v>5</v>
       </c>
@@ -3681,21 +3367,17 @@
       <c r="S27" s="67">
         <v>5</v>
       </c>
-      <c r="T27" s="21">
-        <v>20</v>
-      </c>
-      <c r="U27" s="138">
-        <v>5</v>
-      </c>
-      <c r="V27" s="139">
-        <v>5</v>
-      </c>
-      <c r="W27" s="139">
-        <v>5</v>
-      </c>
-      <c r="X27" s="140">
-        <v>15</v>
-      </c>
+      <c r="T27" s="21"/>
+      <c r="U27" s="101">
+        <v>5</v>
+      </c>
+      <c r="V27" s="102">
+        <v>5</v>
+      </c>
+      <c r="W27" s="102">
+        <v>5</v>
+      </c>
+      <c r="X27" s="103"/>
       <c r="Y27" s="71">
         <v>5</v>
       </c>
@@ -3708,15 +3390,11 @@
       <c r="AB27" s="75">
         <v>5</v>
       </c>
-      <c r="AC27" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC27" s="22"/>
       <c r="AD27" s="79">
         <v>5</v>
       </c>
-      <c r="AE27" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE27" s="23"/>
     </row>
     <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="91"/>
@@ -3732,9 +3410,7 @@
       <c r="E28" s="41">
         <v>5</v>
       </c>
-      <c r="F28" s="18">
-        <v>15</v>
-      </c>
+      <c r="F28" s="18"/>
       <c r="G28" s="46">
         <v>5</v>
       </c>
@@ -3747,9 +3423,7 @@
       <c r="J28" s="50">
         <v>5</v>
       </c>
-      <c r="K28" s="19">
-        <v>20</v>
-      </c>
+      <c r="K28" s="19"/>
       <c r="L28" s="54">
         <v>5</v>
       </c>
@@ -3759,9 +3433,7 @@
       <c r="N28" s="58">
         <v>5</v>
       </c>
-      <c r="O28" s="20">
-        <v>15</v>
-      </c>
+      <c r="O28" s="20"/>
       <c r="P28" s="63">
         <v>5</v>
       </c>
@@ -3774,21 +3446,17 @@
       <c r="S28" s="67">
         <v>5</v>
       </c>
-      <c r="T28" s="21">
-        <v>20</v>
-      </c>
-      <c r="U28" s="138">
-        <v>5</v>
-      </c>
-      <c r="V28" s="139">
-        <v>5</v>
-      </c>
-      <c r="W28" s="139">
-        <v>5</v>
-      </c>
-      <c r="X28" s="140">
-        <v>15</v>
-      </c>
+      <c r="T28" s="21"/>
+      <c r="U28" s="101">
+        <v>5</v>
+      </c>
+      <c r="V28" s="102">
+        <v>5</v>
+      </c>
+      <c r="W28" s="102">
+        <v>5</v>
+      </c>
+      <c r="X28" s="103"/>
       <c r="Y28" s="71">
         <v>5</v>
       </c>
@@ -3801,15 +3469,11 @@
       <c r="AB28" s="75">
         <v>5</v>
       </c>
-      <c r="AC28" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC28" s="22"/>
       <c r="AD28" s="79">
         <v>5</v>
       </c>
-      <c r="AE28" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE28" s="23"/>
     </row>
     <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="91"/>
@@ -3825,9 +3489,7 @@
       <c r="E29" s="41">
         <v>5</v>
       </c>
-      <c r="F29" s="18">
-        <v>14</v>
-      </c>
+      <c r="F29" s="18"/>
       <c r="G29" s="46">
         <v>5</v>
       </c>
@@ -3840,9 +3502,7 @@
       <c r="J29" s="50">
         <v>5</v>
       </c>
-      <c r="K29" s="19">
-        <v>19</v>
-      </c>
+      <c r="K29" s="19"/>
       <c r="L29" s="54">
         <v>3</v>
       </c>
@@ -3852,9 +3512,7 @@
       <c r="N29" s="58">
         <v>4</v>
       </c>
-      <c r="O29" s="20">
-        <v>10</v>
-      </c>
+      <c r="O29" s="20"/>
       <c r="P29" s="63">
         <v>5</v>
       </c>
@@ -3867,21 +3525,17 @@
       <c r="S29" s="67">
         <v>4</v>
       </c>
-      <c r="T29" s="21">
-        <v>19</v>
-      </c>
-      <c r="U29" s="138">
-        <v>5</v>
-      </c>
-      <c r="V29" s="139">
-        <v>5</v>
-      </c>
-      <c r="W29" s="139">
-        <v>5</v>
-      </c>
-      <c r="X29" s="140">
-        <v>15</v>
-      </c>
+      <c r="T29" s="21"/>
+      <c r="U29" s="101">
+        <v>5</v>
+      </c>
+      <c r="V29" s="102">
+        <v>5</v>
+      </c>
+      <c r="W29" s="102">
+        <v>5</v>
+      </c>
+      <c r="X29" s="103"/>
       <c r="Y29" s="71">
         <v>5</v>
       </c>
@@ -3894,15 +3548,11 @@
       <c r="AB29" s="75">
         <v>5</v>
       </c>
-      <c r="AC29" s="22">
-        <v>19</v>
-      </c>
+      <c r="AC29" s="22"/>
       <c r="AD29" s="79">
         <v>4</v>
       </c>
-      <c r="AE29" s="23">
-        <v>4</v>
-      </c>
+      <c r="AE29" s="23"/>
     </row>
     <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="91"/>
@@ -3918,9 +3568,7 @@
       <c r="E30" s="41">
         <v>4</v>
       </c>
-      <c r="F30" s="18">
-        <v>13</v>
-      </c>
+      <c r="F30" s="18"/>
       <c r="G30" s="46">
         <v>5</v>
       </c>
@@ -3933,9 +3581,7 @@
       <c r="J30" s="50">
         <v>4</v>
       </c>
-      <c r="K30" s="19">
-        <v>17</v>
-      </c>
+      <c r="K30" s="19"/>
       <c r="L30" s="54">
         <v>5</v>
       </c>
@@ -3945,9 +3591,7 @@
       <c r="N30" s="58">
         <v>4</v>
       </c>
-      <c r="O30" s="20">
-        <v>13</v>
-      </c>
+      <c r="O30" s="20"/>
       <c r="P30" s="63">
         <v>5</v>
       </c>
@@ -3960,21 +3604,17 @@
       <c r="S30" s="67">
         <v>4</v>
       </c>
-      <c r="T30" s="21">
-        <v>17</v>
-      </c>
-      <c r="U30" s="138">
-        <v>5</v>
-      </c>
-      <c r="V30" s="139">
-        <v>4</v>
-      </c>
-      <c r="W30" s="139">
-        <v>4</v>
-      </c>
-      <c r="X30" s="140">
-        <v>13</v>
-      </c>
+      <c r="T30" s="21"/>
+      <c r="U30" s="101">
+        <v>5</v>
+      </c>
+      <c r="V30" s="102">
+        <v>4</v>
+      </c>
+      <c r="W30" s="102">
+        <v>4</v>
+      </c>
+      <c r="X30" s="103"/>
       <c r="Y30" s="71">
         <v>4</v>
       </c>
@@ -3987,15 +3627,11 @@
       <c r="AB30" s="75">
         <v>4</v>
       </c>
-      <c r="AC30" s="22">
-        <v>16</v>
-      </c>
+      <c r="AC30" s="22"/>
       <c r="AD30" s="79">
         <v>4</v>
       </c>
-      <c r="AE30" s="23">
-        <v>4</v>
-      </c>
+      <c r="AE30" s="23"/>
     </row>
     <row r="31" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="91"/>
@@ -4011,9 +3647,7 @@
       <c r="E31" s="41">
         <v>4</v>
       </c>
-      <c r="F31" s="18">
-        <v>12</v>
-      </c>
+      <c r="F31" s="18"/>
       <c r="G31" s="46">
         <v>4</v>
       </c>
@@ -4026,9 +3660,7 @@
       <c r="J31" s="50">
         <v>5</v>
       </c>
-      <c r="K31" s="19">
-        <v>18</v>
-      </c>
+      <c r="K31" s="19"/>
       <c r="L31" s="54">
         <v>5</v>
       </c>
@@ -4038,9 +3670,7 @@
       <c r="N31" s="58">
         <v>5</v>
       </c>
-      <c r="O31" s="20">
-        <v>15</v>
-      </c>
+      <c r="O31" s="20"/>
       <c r="P31" s="63">
         <v>5</v>
       </c>
@@ -4053,21 +3683,17 @@
       <c r="S31" s="67">
         <v>4</v>
       </c>
-      <c r="T31" s="21">
-        <v>19</v>
-      </c>
-      <c r="U31" s="138">
-        <v>5</v>
-      </c>
-      <c r="V31" s="139">
-        <v>5</v>
-      </c>
-      <c r="W31" s="139">
-        <v>4</v>
-      </c>
-      <c r="X31" s="140">
-        <v>14</v>
-      </c>
+      <c r="T31" s="21"/>
+      <c r="U31" s="101">
+        <v>5</v>
+      </c>
+      <c r="V31" s="102">
+        <v>5</v>
+      </c>
+      <c r="W31" s="102">
+        <v>4</v>
+      </c>
+      <c r="X31" s="103"/>
       <c r="Y31" s="71">
         <v>5</v>
       </c>
@@ -4080,15 +3706,11 @@
       <c r="AB31" s="75">
         <v>4</v>
       </c>
-      <c r="AC31" s="22">
-        <v>19</v>
-      </c>
+      <c r="AC31" s="22"/>
       <c r="AD31" s="79">
         <v>5</v>
       </c>
-      <c r="AE31" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE31" s="23"/>
     </row>
     <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="91"/>
@@ -4104,9 +3726,7 @@
       <c r="E32" s="41">
         <v>5</v>
       </c>
-      <c r="F32" s="18">
-        <v>15</v>
-      </c>
+      <c r="F32" s="18"/>
       <c r="G32" s="46">
         <v>5</v>
       </c>
@@ -4119,9 +3739,7 @@
       <c r="J32" s="50">
         <v>4</v>
       </c>
-      <c r="K32" s="19">
-        <v>18</v>
-      </c>
+      <c r="K32" s="19"/>
       <c r="L32" s="54">
         <v>5</v>
       </c>
@@ -4131,9 +3749,7 @@
       <c r="N32" s="58">
         <v>4</v>
       </c>
-      <c r="O32" s="20">
-        <v>14</v>
-      </c>
+      <c r="O32" s="20"/>
       <c r="P32" s="63">
         <v>5</v>
       </c>
@@ -4146,21 +3762,17 @@
       <c r="S32" s="67">
         <v>5</v>
       </c>
-      <c r="T32" s="21">
-        <v>18</v>
-      </c>
-      <c r="U32" s="138">
-        <v>4</v>
-      </c>
-      <c r="V32" s="139">
-        <v>5</v>
-      </c>
-      <c r="W32" s="139">
-        <v>5</v>
-      </c>
-      <c r="X32" s="140">
-        <v>14</v>
-      </c>
+      <c r="T32" s="21"/>
+      <c r="U32" s="101">
+        <v>4</v>
+      </c>
+      <c r="V32" s="102">
+        <v>5</v>
+      </c>
+      <c r="W32" s="102">
+        <v>5</v>
+      </c>
+      <c r="X32" s="103"/>
       <c r="Y32" s="71">
         <v>5</v>
       </c>
@@ -4173,15 +3785,11 @@
       <c r="AB32" s="75">
         <v>5</v>
       </c>
-      <c r="AC32" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC32" s="22"/>
       <c r="AD32" s="79">
         <v>5</v>
       </c>
-      <c r="AE32" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE32" s="23"/>
     </row>
     <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="91"/>
@@ -4197,9 +3805,7 @@
       <c r="E33" s="41">
         <v>5</v>
       </c>
-      <c r="F33" s="18">
-        <v>15</v>
-      </c>
+      <c r="F33" s="18"/>
       <c r="G33" s="46">
         <v>5</v>
       </c>
@@ -4212,9 +3818,7 @@
       <c r="J33" s="50">
         <v>5</v>
       </c>
-      <c r="K33" s="19">
-        <v>20</v>
-      </c>
+      <c r="K33" s="19"/>
       <c r="L33" s="54">
         <v>5</v>
       </c>
@@ -4224,9 +3828,7 @@
       <c r="N33" s="58">
         <v>5</v>
       </c>
-      <c r="O33" s="20">
-        <v>15</v>
-      </c>
+      <c r="O33" s="20"/>
       <c r="P33" s="63">
         <v>5</v>
       </c>
@@ -4239,21 +3841,17 @@
       <c r="S33" s="67">
         <v>5</v>
       </c>
-      <c r="T33" s="21">
-        <v>20</v>
-      </c>
-      <c r="U33" s="138">
-        <v>5</v>
-      </c>
-      <c r="V33" s="139">
-        <v>5</v>
-      </c>
-      <c r="W33" s="139">
-        <v>5</v>
-      </c>
-      <c r="X33" s="140">
-        <v>15</v>
-      </c>
+      <c r="T33" s="21"/>
+      <c r="U33" s="101">
+        <v>5</v>
+      </c>
+      <c r="V33" s="102">
+        <v>5</v>
+      </c>
+      <c r="W33" s="102">
+        <v>5</v>
+      </c>
+      <c r="X33" s="103"/>
       <c r="Y33" s="71">
         <v>5</v>
       </c>
@@ -4266,15 +3864,11 @@
       <c r="AB33" s="75">
         <v>5</v>
       </c>
-      <c r="AC33" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC33" s="22"/>
       <c r="AD33" s="79">
         <v>5</v>
       </c>
-      <c r="AE33" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE33" s="23"/>
     </row>
     <row r="34" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="91"/>
@@ -4290,9 +3884,7 @@
       <c r="E34" s="41">
         <v>3</v>
       </c>
-      <c r="F34" s="18">
-        <v>11</v>
-      </c>
+      <c r="F34" s="18"/>
       <c r="G34" s="46">
         <v>3</v>
       </c>
@@ -4305,9 +3897,7 @@
       <c r="J34" s="50">
         <v>3</v>
       </c>
-      <c r="K34" s="19">
-        <v>14</v>
-      </c>
+      <c r="K34" s="19"/>
       <c r="L34" s="54">
         <v>4</v>
       </c>
@@ -4317,9 +3907,7 @@
       <c r="N34" s="58">
         <v>5</v>
       </c>
-      <c r="O34" s="20">
-        <v>12</v>
-      </c>
+      <c r="O34" s="20"/>
       <c r="P34" s="63">
         <v>4</v>
       </c>
@@ -4332,21 +3920,17 @@
       <c r="S34" s="67">
         <v>3</v>
       </c>
-      <c r="T34" s="21">
-        <v>16</v>
-      </c>
-      <c r="U34" s="138">
-        <v>5</v>
-      </c>
-      <c r="V34" s="139">
-        <v>4</v>
-      </c>
-      <c r="W34" s="139">
-        <v>4</v>
-      </c>
-      <c r="X34" s="140">
-        <v>13</v>
-      </c>
+      <c r="T34" s="21"/>
+      <c r="U34" s="101">
+        <v>5</v>
+      </c>
+      <c r="V34" s="102">
+        <v>4</v>
+      </c>
+      <c r="W34" s="102">
+        <v>4</v>
+      </c>
+      <c r="X34" s="103"/>
       <c r="Y34" s="71">
         <v>4</v>
       </c>
@@ -4359,15 +3943,11 @@
       <c r="AB34" s="75">
         <v>4</v>
       </c>
-      <c r="AC34" s="22">
-        <v>14</v>
-      </c>
+      <c r="AC34" s="22"/>
       <c r="AD34" s="79">
         <v>5</v>
       </c>
-      <c r="AE34" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE34" s="23"/>
     </row>
     <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="91"/>
@@ -4383,9 +3963,7 @@
       <c r="E35" s="41">
         <v>5</v>
       </c>
-      <c r="F35" s="18">
-        <v>15</v>
-      </c>
+      <c r="F35" s="18"/>
       <c r="G35" s="46">
         <v>5</v>
       </c>
@@ -4398,9 +3976,7 @@
       <c r="J35" s="50">
         <v>5</v>
       </c>
-      <c r="K35" s="19">
-        <v>20</v>
-      </c>
+      <c r="K35" s="19"/>
       <c r="L35" s="54">
         <v>5</v>
       </c>
@@ -4410,9 +3986,7 @@
       <c r="N35" s="58">
         <v>5</v>
       </c>
-      <c r="O35" s="20">
-        <v>15</v>
-      </c>
+      <c r="O35" s="20"/>
       <c r="P35" s="63">
         <v>5</v>
       </c>
@@ -4425,21 +3999,17 @@
       <c r="S35" s="67">
         <v>5</v>
       </c>
-      <c r="T35" s="21">
-        <v>20</v>
-      </c>
-      <c r="U35" s="138">
-        <v>5</v>
-      </c>
-      <c r="V35" s="139">
-        <v>5</v>
-      </c>
-      <c r="W35" s="139">
-        <v>5</v>
-      </c>
-      <c r="X35" s="140">
-        <v>15</v>
-      </c>
+      <c r="T35" s="21"/>
+      <c r="U35" s="101">
+        <v>5</v>
+      </c>
+      <c r="V35" s="102">
+        <v>5</v>
+      </c>
+      <c r="W35" s="102">
+        <v>5</v>
+      </c>
+      <c r="X35" s="103"/>
       <c r="Y35" s="71">
         <v>5</v>
       </c>
@@ -4452,15 +4022,11 @@
       <c r="AB35" s="75">
         <v>5</v>
       </c>
-      <c r="AC35" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC35" s="22"/>
       <c r="AD35" s="79">
         <v>5</v>
       </c>
-      <c r="AE35" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE35" s="23"/>
     </row>
     <row r="36" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="91"/>
@@ -4476,9 +4042,7 @@
       <c r="E36" s="41">
         <v>4</v>
       </c>
-      <c r="F36" s="18">
-        <v>14</v>
-      </c>
+      <c r="F36" s="18"/>
       <c r="G36" s="46">
         <v>5</v>
       </c>
@@ -4491,9 +4055,7 @@
       <c r="J36" s="50">
         <v>4</v>
       </c>
-      <c r="K36" s="19">
-        <v>18</v>
-      </c>
+      <c r="K36" s="19"/>
       <c r="L36" s="54">
         <v>5</v>
       </c>
@@ -4503,9 +4065,7 @@
       <c r="N36" s="58">
         <v>4</v>
       </c>
-      <c r="O36" s="20">
-        <v>13</v>
-      </c>
+      <c r="O36" s="20"/>
       <c r="P36" s="63">
         <v>5</v>
       </c>
@@ -4518,21 +4078,17 @@
       <c r="S36" s="67">
         <v>5</v>
       </c>
-      <c r="T36" s="21">
-        <v>20</v>
-      </c>
-      <c r="U36" s="138">
-        <v>5</v>
-      </c>
-      <c r="V36" s="139">
-        <v>4</v>
-      </c>
-      <c r="W36" s="139">
-        <v>4</v>
-      </c>
-      <c r="X36" s="140">
-        <v>13</v>
-      </c>
+      <c r="T36" s="21"/>
+      <c r="U36" s="101">
+        <v>5</v>
+      </c>
+      <c r="V36" s="102">
+        <v>4</v>
+      </c>
+      <c r="W36" s="102">
+        <v>4</v>
+      </c>
+      <c r="X36" s="103"/>
       <c r="Y36" s="71">
         <v>5</v>
       </c>
@@ -4545,15 +4101,11 @@
       <c r="AB36" s="75">
         <v>5</v>
       </c>
-      <c r="AC36" s="22">
-        <v>19</v>
-      </c>
+      <c r="AC36" s="22"/>
       <c r="AD36" s="79">
         <v>5</v>
       </c>
-      <c r="AE36" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE36" s="23"/>
     </row>
     <row r="37" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="91"/>
@@ -4569,9 +4121,7 @@
       <c r="E37" s="41">
         <v>4</v>
       </c>
-      <c r="F37" s="18">
-        <v>12</v>
-      </c>
+      <c r="F37" s="18"/>
       <c r="G37" s="46">
         <v>3</v>
       </c>
@@ -4584,9 +4134,7 @@
       <c r="J37" s="50">
         <v>3</v>
       </c>
-      <c r="K37" s="19">
-        <v>12</v>
-      </c>
+      <c r="K37" s="19"/>
       <c r="L37" s="54">
         <v>2</v>
       </c>
@@ -4596,9 +4144,7 @@
       <c r="N37" s="58">
         <v>3</v>
       </c>
-      <c r="O37" s="20">
-        <v>8</v>
-      </c>
+      <c r="O37" s="20"/>
       <c r="P37" s="63">
         <v>3</v>
       </c>
@@ -4611,21 +4157,17 @@
       <c r="S37" s="67">
         <v>4</v>
       </c>
-      <c r="T37" s="21">
-        <v>14</v>
-      </c>
-      <c r="U37" s="138">
-        <v>4</v>
-      </c>
-      <c r="V37" s="139">
+      <c r="T37" s="21"/>
+      <c r="U37" s="101">
+        <v>4</v>
+      </c>
+      <c r="V37" s="102">
         <v>3</v>
       </c>
-      <c r="W37" s="139">
+      <c r="W37" s="102">
         <v>3</v>
       </c>
-      <c r="X37" s="140">
-        <v>10</v>
-      </c>
+      <c r="X37" s="103"/>
       <c r="Y37" s="71">
         <v>4</v>
       </c>
@@ -4638,15 +4180,11 @@
       <c r="AB37" s="75">
         <v>4</v>
       </c>
-      <c r="AC37" s="22">
-        <v>16</v>
-      </c>
+      <c r="AC37" s="22"/>
       <c r="AD37" s="79">
         <v>4</v>
       </c>
-      <c r="AE37" s="23">
-        <v>4</v>
-      </c>
+      <c r="AE37" s="23"/>
     </row>
     <row r="38" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="92"/>
@@ -4662,9 +4200,7 @@
       <c r="E38" s="41">
         <v>5</v>
       </c>
-      <c r="F38" s="18">
-        <v>15</v>
-      </c>
+      <c r="F38" s="18"/>
       <c r="G38" s="46">
         <v>4</v>
       </c>
@@ -4677,9 +4213,7 @@
       <c r="J38" s="50">
         <v>5</v>
       </c>
-      <c r="K38" s="19">
-        <v>19</v>
-      </c>
+      <c r="K38" s="19"/>
       <c r="L38" s="54">
         <v>4</v>
       </c>
@@ -4689,9 +4223,7 @@
       <c r="N38" s="58">
         <v>5</v>
       </c>
-      <c r="O38" s="20">
-        <v>14</v>
-      </c>
+      <c r="O38" s="20"/>
       <c r="P38" s="63">
         <v>4</v>
       </c>
@@ -4704,21 +4236,17 @@
       <c r="S38" s="67">
         <v>5</v>
       </c>
-      <c r="T38" s="21">
-        <v>17</v>
-      </c>
-      <c r="U38" s="138">
-        <v>5</v>
-      </c>
-      <c r="V38" s="139">
-        <v>5</v>
-      </c>
-      <c r="W38" s="139">
-        <v>5</v>
-      </c>
-      <c r="X38" s="140">
-        <v>15</v>
-      </c>
+      <c r="T38" s="21"/>
+      <c r="U38" s="101">
+        <v>5</v>
+      </c>
+      <c r="V38" s="102">
+        <v>5</v>
+      </c>
+      <c r="W38" s="102">
+        <v>5</v>
+      </c>
+      <c r="X38" s="103"/>
       <c r="Y38" s="71">
         <v>5</v>
       </c>
@@ -4731,15 +4259,11 @@
       <c r="AB38" s="75">
         <v>5</v>
       </c>
-      <c r="AC38" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC38" s="22"/>
       <c r="AD38" s="79">
         <v>4</v>
       </c>
-      <c r="AE38" s="23">
-        <v>4</v>
-      </c>
+      <c r="AE38" s="23"/>
     </row>
     <row r="39" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="92"/>
@@ -4755,9 +4279,7 @@
       <c r="E39" s="41">
         <v>5</v>
       </c>
-      <c r="F39" s="18">
-        <v>15</v>
-      </c>
+      <c r="F39" s="18"/>
       <c r="G39" s="46">
         <v>5</v>
       </c>
@@ -4770,9 +4292,7 @@
       <c r="J39" s="50">
         <v>5</v>
       </c>
-      <c r="K39" s="19">
-        <v>20</v>
-      </c>
+      <c r="K39" s="19"/>
       <c r="L39" s="54">
         <v>5</v>
       </c>
@@ -4782,9 +4302,7 @@
       <c r="N39" s="58">
         <v>5</v>
       </c>
-      <c r="O39" s="20">
-        <v>15</v>
-      </c>
+      <c r="O39" s="20"/>
       <c r="P39" s="63">
         <v>5</v>
       </c>
@@ -4797,21 +4315,17 @@
       <c r="S39" s="67">
         <v>5</v>
       </c>
-      <c r="T39" s="21">
-        <v>20</v>
-      </c>
-      <c r="U39" s="138">
-        <v>5</v>
-      </c>
-      <c r="V39" s="139">
-        <v>5</v>
-      </c>
-      <c r="W39" s="139">
-        <v>5</v>
-      </c>
-      <c r="X39" s="140">
-        <v>15</v>
-      </c>
+      <c r="T39" s="21"/>
+      <c r="U39" s="101">
+        <v>5</v>
+      </c>
+      <c r="V39" s="102">
+        <v>5</v>
+      </c>
+      <c r="W39" s="102">
+        <v>5</v>
+      </c>
+      <c r="X39" s="103"/>
       <c r="Y39" s="71">
         <v>5</v>
       </c>
@@ -4824,15 +4338,11 @@
       <c r="AB39" s="75">
         <v>5</v>
       </c>
-      <c r="AC39" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC39" s="22"/>
       <c r="AD39" s="79">
         <v>5</v>
       </c>
-      <c r="AE39" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE39" s="23"/>
     </row>
     <row r="40" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="92"/>
@@ -4848,9 +4358,7 @@
       <c r="E40" s="41">
         <v>4</v>
       </c>
-      <c r="F40" s="18">
-        <v>14</v>
-      </c>
+      <c r="F40" s="18"/>
       <c r="G40" s="46">
         <v>5</v>
       </c>
@@ -4863,9 +4371,7 @@
       <c r="J40" s="50">
         <v>5</v>
       </c>
-      <c r="K40" s="19">
-        <v>19</v>
-      </c>
+      <c r="K40" s="19"/>
       <c r="L40" s="54">
         <v>5</v>
       </c>
@@ -4875,9 +4381,7 @@
       <c r="N40" s="58">
         <v>5</v>
       </c>
-      <c r="O40" s="20">
-        <v>15</v>
-      </c>
+      <c r="O40" s="20"/>
       <c r="P40" s="63">
         <v>4</v>
       </c>
@@ -4890,21 +4394,17 @@
       <c r="S40" s="67">
         <v>5</v>
       </c>
-      <c r="T40" s="21">
-        <v>18</v>
-      </c>
-      <c r="U40" s="138">
-        <v>5</v>
-      </c>
-      <c r="V40" s="139">
-        <v>5</v>
-      </c>
-      <c r="W40" s="139">
-        <v>5</v>
-      </c>
-      <c r="X40" s="140">
-        <v>15</v>
-      </c>
+      <c r="T40" s="21"/>
+      <c r="U40" s="101">
+        <v>5</v>
+      </c>
+      <c r="V40" s="102">
+        <v>5</v>
+      </c>
+      <c r="W40" s="102">
+        <v>5</v>
+      </c>
+      <c r="X40" s="103"/>
       <c r="Y40" s="71">
         <v>4</v>
       </c>
@@ -4917,15 +4417,11 @@
       <c r="AB40" s="75">
         <v>4</v>
       </c>
-      <c r="AC40" s="22">
-        <v>17</v>
-      </c>
+      <c r="AC40" s="22"/>
       <c r="AD40" s="79">
         <v>5</v>
       </c>
-      <c r="AE40" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE40" s="23"/>
     </row>
     <row r="41" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="92"/>
@@ -4941,9 +4437,7 @@
       <c r="E41" s="41">
         <v>5</v>
       </c>
-      <c r="F41" s="18">
-        <v>15</v>
-      </c>
+      <c r="F41" s="18"/>
       <c r="G41" s="46">
         <v>4</v>
       </c>
@@ -4956,9 +4450,7 @@
       <c r="J41" s="50">
         <v>5</v>
       </c>
-      <c r="K41" s="19">
-        <v>19</v>
-      </c>
+      <c r="K41" s="19"/>
       <c r="L41" s="54">
         <v>5</v>
       </c>
@@ -4968,9 +4460,7 @@
       <c r="N41" s="58">
         <v>5</v>
       </c>
-      <c r="O41" s="20">
-        <v>14</v>
-      </c>
+      <c r="O41" s="20"/>
       <c r="P41" s="63">
         <v>3</v>
       </c>
@@ -4983,21 +4473,17 @@
       <c r="S41" s="67">
         <v>3</v>
       </c>
-      <c r="T41" s="21">
-        <v>12</v>
-      </c>
-      <c r="U41" s="138">
-        <v>5</v>
-      </c>
-      <c r="V41" s="139">
-        <v>5</v>
-      </c>
-      <c r="W41" s="139">
-        <v>5</v>
-      </c>
-      <c r="X41" s="140">
-        <v>15</v>
-      </c>
+      <c r="T41" s="21"/>
+      <c r="U41" s="101">
+        <v>5</v>
+      </c>
+      <c r="V41" s="102">
+        <v>5</v>
+      </c>
+      <c r="W41" s="102">
+        <v>5</v>
+      </c>
+      <c r="X41" s="103"/>
       <c r="Y41" s="71">
         <v>5</v>
       </c>
@@ -5010,15 +4496,11 @@
       <c r="AB41" s="75">
         <v>5</v>
       </c>
-      <c r="AC41" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC41" s="22"/>
       <c r="AD41" s="79">
         <v>5</v>
       </c>
-      <c r="AE41" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE41" s="23"/>
     </row>
     <row r="42" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="92"/>
@@ -5034,9 +4516,7 @@
       <c r="E42" s="41">
         <v>4</v>
       </c>
-      <c r="F42" s="18">
-        <v>11</v>
-      </c>
+      <c r="F42" s="18"/>
       <c r="G42" s="46">
         <v>4</v>
       </c>
@@ -5049,9 +4529,7 @@
       <c r="J42" s="50">
         <v>3</v>
       </c>
-      <c r="K42" s="19">
-        <v>13</v>
-      </c>
+      <c r="K42" s="19"/>
       <c r="L42" s="54">
         <v>4</v>
       </c>
@@ -5061,9 +4539,7 @@
       <c r="N42" s="58">
         <v>4</v>
       </c>
-      <c r="O42" s="20">
-        <v>12</v>
-      </c>
+      <c r="O42" s="20"/>
       <c r="P42" s="63">
         <v>4</v>
       </c>
@@ -5076,21 +4552,17 @@
       <c r="S42" s="67">
         <v>5</v>
       </c>
-      <c r="T42" s="21">
-        <v>16</v>
-      </c>
-      <c r="U42" s="138">
+      <c r="T42" s="21"/>
+      <c r="U42" s="101">
         <v>3</v>
       </c>
-      <c r="V42" s="139">
-        <v>4</v>
-      </c>
-      <c r="W42" s="139">
-        <v>4</v>
-      </c>
-      <c r="X42" s="140">
-        <v>11</v>
-      </c>
+      <c r="V42" s="102">
+        <v>4</v>
+      </c>
+      <c r="W42" s="102">
+        <v>4</v>
+      </c>
+      <c r="X42" s="103"/>
       <c r="Y42" s="71">
         <v>4</v>
       </c>
@@ -5103,15 +4575,11 @@
       <c r="AB42" s="75">
         <v>4</v>
       </c>
-      <c r="AC42" s="22">
-        <v>16</v>
-      </c>
+      <c r="AC42" s="22"/>
       <c r="AD42" s="79">
         <v>5</v>
       </c>
-      <c r="AE42" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE42" s="23"/>
     </row>
     <row r="43" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="92"/>
@@ -5127,9 +4595,7 @@
       <c r="E43" s="41">
         <v>5</v>
       </c>
-      <c r="F43" s="18">
-        <v>15</v>
-      </c>
+      <c r="F43" s="18"/>
       <c r="G43" s="46">
         <v>5</v>
       </c>
@@ -5142,9 +4608,7 @@
       <c r="J43" s="50">
         <v>5</v>
       </c>
-      <c r="K43" s="19">
-        <v>20</v>
-      </c>
+      <c r="K43" s="19"/>
       <c r="L43" s="54">
         <v>5</v>
       </c>
@@ -5154,9 +4618,7 @@
       <c r="N43" s="58">
         <v>5</v>
       </c>
-      <c r="O43" s="20">
-        <v>15</v>
-      </c>
+      <c r="O43" s="20"/>
       <c r="P43" s="63">
         <v>5</v>
       </c>
@@ -5169,21 +4631,17 @@
       <c r="S43" s="67">
         <v>5</v>
       </c>
-      <c r="T43" s="21">
-        <v>19</v>
-      </c>
-      <c r="U43" s="138">
-        <v>4</v>
-      </c>
-      <c r="V43" s="139">
-        <v>5</v>
-      </c>
-      <c r="W43" s="139">
-        <v>4</v>
-      </c>
-      <c r="X43" s="140">
-        <v>12</v>
-      </c>
+      <c r="T43" s="21"/>
+      <c r="U43" s="101">
+        <v>4</v>
+      </c>
+      <c r="V43" s="102">
+        <v>5</v>
+      </c>
+      <c r="W43" s="102">
+        <v>4</v>
+      </c>
+      <c r="X43" s="103"/>
       <c r="Y43" s="71">
         <v>5</v>
       </c>
@@ -5196,15 +4654,11 @@
       <c r="AB43" s="75">
         <v>5</v>
       </c>
-      <c r="AC43" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC43" s="22"/>
       <c r="AD43" s="79">
         <v>5</v>
       </c>
-      <c r="AE43" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE43" s="23"/>
     </row>
     <row r="44" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="92"/>
@@ -5220,9 +4674,7 @@
       <c r="E44" s="41">
         <v>5</v>
       </c>
-      <c r="F44" s="18">
-        <v>15</v>
-      </c>
+      <c r="F44" s="18"/>
       <c r="G44" s="46">
         <v>5</v>
       </c>
@@ -5235,9 +4687,7 @@
       <c r="J44" s="50">
         <v>5</v>
       </c>
-      <c r="K44" s="19">
-        <v>20</v>
-      </c>
+      <c r="K44" s="19"/>
       <c r="L44" s="54">
         <v>5</v>
       </c>
@@ -5247,9 +4697,7 @@
       <c r="N44" s="58">
         <v>5</v>
       </c>
-      <c r="O44" s="20">
-        <v>15</v>
-      </c>
+      <c r="O44" s="20"/>
       <c r="P44" s="63">
         <v>5</v>
       </c>
@@ -5262,21 +4710,17 @@
       <c r="S44" s="67">
         <v>5</v>
       </c>
-      <c r="T44" s="21">
-        <v>20</v>
-      </c>
-      <c r="U44" s="138">
-        <v>5</v>
-      </c>
-      <c r="V44" s="139">
-        <v>5</v>
-      </c>
-      <c r="W44" s="139">
-        <v>5</v>
-      </c>
-      <c r="X44" s="140">
-        <v>15</v>
-      </c>
+      <c r="T44" s="21"/>
+      <c r="U44" s="101">
+        <v>5</v>
+      </c>
+      <c r="V44" s="102">
+        <v>5</v>
+      </c>
+      <c r="W44" s="102">
+        <v>5</v>
+      </c>
+      <c r="X44" s="103"/>
       <c r="Y44" s="71">
         <v>5</v>
       </c>
@@ -5289,15 +4733,11 @@
       <c r="AB44" s="75">
         <v>5</v>
       </c>
-      <c r="AC44" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC44" s="22"/>
       <c r="AD44" s="79">
         <v>5</v>
       </c>
-      <c r="AE44" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE44" s="23"/>
     </row>
     <row r="45" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="92"/>
@@ -5313,9 +4753,7 @@
       <c r="E45" s="41">
         <v>5</v>
       </c>
-      <c r="F45" s="18">
-        <v>15</v>
-      </c>
+      <c r="F45" s="18"/>
       <c r="G45" s="46">
         <v>5</v>
       </c>
@@ -5328,9 +4766,7 @@
       <c r="J45" s="50">
         <v>5</v>
       </c>
-      <c r="K45" s="19">
-        <v>20</v>
-      </c>
+      <c r="K45" s="19"/>
       <c r="L45" s="54">
         <v>5</v>
       </c>
@@ -5340,9 +4776,7 @@
       <c r="N45" s="58">
         <v>5</v>
       </c>
-      <c r="O45" s="20">
-        <v>15</v>
-      </c>
+      <c r="O45" s="20"/>
       <c r="P45" s="63">
         <v>5</v>
       </c>
@@ -5355,21 +4789,17 @@
       <c r="S45" s="67">
         <v>5</v>
       </c>
-      <c r="T45" s="21">
-        <v>20</v>
-      </c>
-      <c r="U45" s="138">
-        <v>5</v>
-      </c>
-      <c r="V45" s="139">
-        <v>5</v>
-      </c>
-      <c r="W45" s="139">
-        <v>5</v>
-      </c>
-      <c r="X45" s="140">
-        <v>15</v>
-      </c>
+      <c r="T45" s="21"/>
+      <c r="U45" s="101">
+        <v>5</v>
+      </c>
+      <c r="V45" s="102">
+        <v>5</v>
+      </c>
+      <c r="W45" s="102">
+        <v>5</v>
+      </c>
+      <c r="X45" s="103"/>
       <c r="Y45" s="71">
         <v>5</v>
       </c>
@@ -5382,15 +4812,11 @@
       <c r="AB45" s="75">
         <v>5</v>
       </c>
-      <c r="AC45" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC45" s="22"/>
       <c r="AD45" s="79">
         <v>5</v>
       </c>
-      <c r="AE45" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE45" s="23"/>
     </row>
     <row r="46" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="92"/>
@@ -5406,9 +4832,7 @@
       <c r="E46" s="41">
         <v>5</v>
       </c>
-      <c r="F46" s="18">
-        <v>15</v>
-      </c>
+      <c r="F46" s="18"/>
       <c r="G46" s="46">
         <v>5</v>
       </c>
@@ -5421,9 +4845,7 @@
       <c r="J46" s="50">
         <v>5</v>
       </c>
-      <c r="K46" s="19">
-        <v>20</v>
-      </c>
+      <c r="K46" s="19"/>
       <c r="L46" s="54">
         <v>4</v>
       </c>
@@ -5433,9 +4855,7 @@
       <c r="N46" s="58">
         <v>5</v>
       </c>
-      <c r="O46" s="20">
-        <v>14</v>
-      </c>
+      <c r="O46" s="20"/>
       <c r="P46" s="63">
         <v>4</v>
       </c>
@@ -5448,21 +4868,17 @@
       <c r="S46" s="67">
         <v>5</v>
       </c>
-      <c r="T46" s="21">
-        <v>19</v>
-      </c>
-      <c r="U46" s="138">
-        <v>5</v>
-      </c>
-      <c r="V46" s="139">
-        <v>5</v>
-      </c>
-      <c r="W46" s="139">
-        <v>5</v>
-      </c>
-      <c r="X46" s="140">
-        <v>15</v>
-      </c>
+      <c r="T46" s="21"/>
+      <c r="U46" s="101">
+        <v>5</v>
+      </c>
+      <c r="V46" s="102">
+        <v>5</v>
+      </c>
+      <c r="W46" s="102">
+        <v>5</v>
+      </c>
+      <c r="X46" s="103"/>
       <c r="Y46" s="71">
         <v>5</v>
       </c>
@@ -5475,15 +4891,11 @@
       <c r="AB46" s="75">
         <v>5</v>
       </c>
-      <c r="AC46" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC46" s="22"/>
       <c r="AD46" s="79">
         <v>5</v>
       </c>
-      <c r="AE46" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE46" s="23"/>
     </row>
     <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="92"/>
@@ -5499,9 +4911,7 @@
       <c r="E47" s="41">
         <v>3</v>
       </c>
-      <c r="F47" s="18">
-        <v>9</v>
-      </c>
+      <c r="F47" s="18"/>
       <c r="G47" s="46">
         <v>5</v>
       </c>
@@ -5514,9 +4924,7 @@
       <c r="J47" s="50">
         <v>5</v>
       </c>
-      <c r="K47" s="19">
-        <v>20</v>
-      </c>
+      <c r="K47" s="19"/>
       <c r="L47" s="54">
         <v>5</v>
       </c>
@@ -5526,9 +4934,7 @@
       <c r="N47" s="58">
         <v>5</v>
       </c>
-      <c r="O47" s="20">
-        <v>15</v>
-      </c>
+      <c r="O47" s="20"/>
       <c r="P47" s="63">
         <v>5</v>
       </c>
@@ -5541,21 +4947,17 @@
       <c r="S47" s="67">
         <v>5</v>
       </c>
-      <c r="T47" s="21">
-        <v>20</v>
-      </c>
-      <c r="U47" s="138">
-        <v>5</v>
-      </c>
-      <c r="V47" s="139">
-        <v>5</v>
-      </c>
-      <c r="W47" s="139">
-        <v>5</v>
-      </c>
-      <c r="X47" s="140">
-        <v>15</v>
-      </c>
+      <c r="T47" s="21"/>
+      <c r="U47" s="101">
+        <v>5</v>
+      </c>
+      <c r="V47" s="102">
+        <v>5</v>
+      </c>
+      <c r="W47" s="102">
+        <v>5</v>
+      </c>
+      <c r="X47" s="103"/>
       <c r="Y47" s="71">
         <v>5</v>
       </c>
@@ -5568,15 +4970,11 @@
       <c r="AB47" s="75">
         <v>5</v>
       </c>
-      <c r="AC47" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC47" s="22"/>
       <c r="AD47" s="79">
         <v>5</v>
       </c>
-      <c r="AE47" s="23">
-        <v>5</v>
-      </c>
+      <c r="AE47" s="23"/>
     </row>
     <row r="48" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="92"/>
@@ -5592,9 +4990,7 @@
       <c r="E48" s="41">
         <v>5</v>
       </c>
-      <c r="F48" s="18">
-        <v>15</v>
-      </c>
+      <c r="F48" s="18"/>
       <c r="G48" s="46">
         <v>5</v>
       </c>
@@ -5607,9 +5003,7 @@
       <c r="J48" s="50">
         <v>5</v>
       </c>
-      <c r="K48" s="19">
-        <v>20</v>
-      </c>
+      <c r="K48" s="19"/>
       <c r="L48" s="54">
         <v>5</v>
       </c>
@@ -5619,9 +5013,7 @@
       <c r="N48" s="58">
         <v>5</v>
       </c>
-      <c r="O48" s="20">
-        <v>15</v>
-      </c>
+      <c r="O48" s="20"/>
       <c r="P48" s="63">
         <v>4</v>
       </c>
@@ -5634,21 +5026,17 @@
       <c r="S48" s="67">
         <v>5</v>
       </c>
-      <c r="T48" s="21">
-        <v>19</v>
-      </c>
-      <c r="U48" s="138">
-        <v>5</v>
-      </c>
-      <c r="V48" s="139">
-        <v>4</v>
-      </c>
-      <c r="W48" s="139">
-        <v>5</v>
-      </c>
-      <c r="X48" s="140">
-        <v>14</v>
-      </c>
+      <c r="T48" s="21"/>
+      <c r="U48" s="101">
+        <v>5</v>
+      </c>
+      <c r="V48" s="102">
+        <v>4</v>
+      </c>
+      <c r="W48" s="102">
+        <v>5</v>
+      </c>
+      <c r="X48" s="103"/>
       <c r="Y48" s="71">
         <v>5</v>
       </c>
@@ -5661,15 +5049,11 @@
       <c r="AB48" s="75">
         <v>5</v>
       </c>
-      <c r="AC48" s="22">
-        <v>20</v>
-      </c>
+      <c r="AC48" s="22"/>
       <c r="AD48" s="79">
         <v>4</v>
       </c>
-      <c r="AE48" s="23">
-        <v>4</v>
-      </c>
+      <c r="AE48" s="23"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="92"/>
@@ -5685,9 +5069,7 @@
       <c r="E49" s="43">
         <v>5</v>
       </c>
-      <c r="F49" s="5">
-        <v>15</v>
-      </c>
+      <c r="F49" s="5"/>
       <c r="G49" s="47">
         <v>5</v>
       </c>
@@ -5700,9 +5082,7 @@
       <c r="J49" s="51">
         <v>5</v>
       </c>
-      <c r="K49" s="6">
-        <v>20</v>
-      </c>
+      <c r="K49" s="6"/>
       <c r="L49" s="55">
         <v>5</v>
       </c>
@@ -5712,9 +5092,7 @@
       <c r="N49" s="59">
         <v>5</v>
       </c>
-      <c r="O49" s="7">
-        <v>15</v>
-      </c>
+      <c r="O49" s="7"/>
       <c r="P49" s="64">
         <v>5</v>
       </c>
@@ -5727,21 +5105,17 @@
       <c r="S49" s="68">
         <v>5</v>
       </c>
-      <c r="T49" s="8">
-        <v>20</v>
-      </c>
-      <c r="U49" s="141">
-        <v>5</v>
-      </c>
-      <c r="V49" s="142">
-        <v>5</v>
-      </c>
-      <c r="W49" s="142">
-        <v>5</v>
-      </c>
-      <c r="X49" s="143">
-        <v>15</v>
-      </c>
+      <c r="T49" s="8"/>
+      <c r="U49" s="104">
+        <v>5</v>
+      </c>
+      <c r="V49" s="105">
+        <v>5</v>
+      </c>
+      <c r="W49" s="105">
+        <v>5</v>
+      </c>
+      <c r="X49" s="106"/>
       <c r="Y49" s="72">
         <v>5</v>
       </c>
@@ -5754,15 +5128,11 @@
       <c r="AB49" s="76">
         <v>5</v>
       </c>
-      <c r="AC49" s="9">
-        <v>20</v>
-      </c>
+      <c r="AC49" s="9"/>
       <c r="AD49" s="80">
         <v>4</v>
       </c>
-      <c r="AE49" s="10">
-        <v>4</v>
-      </c>
+      <c r="AE49" s="10"/>
     </row>
     <row r="50" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -5774,119 +5144,116 @@
         <v>4.6444444444444448</v>
       </c>
       <c r="D50" s="39">
-        <f>AVERAGE(D4:D49)</f>
-        <v>4.5652173913043477</v>
+        <f>AVERAGE(D5:D49)</f>
+        <v>4.6222222222222218</v>
       </c>
       <c r="E50" s="44">
-        <f>AVERAGE(E4:E49)</f>
-        <v>4.6086956521739131</v>
+        <f>AVERAGE(E5:E49)</f>
+        <v>4.6444444444444448</v>
       </c>
       <c r="F50" s="24">
         <f>AVERAGE(C50:E50)</f>
-        <v>4.6061191626409022</v>
+        <v>4.6370370370370368</v>
       </c>
       <c r="G50" s="48">
-        <f>AVERAGE(G4:G49)</f>
-        <v>4.5652173913043477</v>
+        <f>AVERAGE(G5:G49)</f>
+        <v>4.6444444444444448</v>
       </c>
       <c r="H50" s="52">
-        <f>AVERAGE(H4:H49)</f>
-        <v>4.5652173913043477</v>
+        <f>AVERAGE(H5:H49)</f>
+        <v>4.6222222222222218</v>
       </c>
       <c r="I50" s="52">
-        <f>AVERAGE(I4:I49)</f>
-        <v>4.6304347826086953</v>
+        <f>AVERAGE(I5:I49)</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="J50" s="52">
-        <f>AVERAGE(J4:J49)</f>
-        <v>4.6521739130434785</v>
+        <f>AVERAGE(J5:J49)</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="K50" s="25">
         <f>AVERAGE(G50:J50)</f>
-        <v>4.6032608695652169</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="L50" s="56">
-        <f>AVERAGE(L4:L49)</f>
-        <v>4.6086956521739131</v>
+        <f>AVERAGE(L5:L49)</f>
+        <v>4.6888888888888891</v>
       </c>
       <c r="M50" s="60">
-        <f>AVERAGE(M4:M49)</f>
-        <v>4.5434782608695654</v>
+        <f>AVERAGE(M5:M49)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N50" s="60">
-        <f>AVERAGE(N4:N49)</f>
-        <v>4.7173913043478262</v>
+        <f>AVERAGE(N5:N49)</f>
+        <v>4.7555555555555555</v>
       </c>
       <c r="O50" s="26">
         <f>AVERAGE(L50:N50)</f>
-        <v>4.6231884057971016</v>
+        <v>4.6814814814814811</v>
       </c>
       <c r="P50" s="65">
-        <f>AVERAGE(P4:P49)</f>
-        <v>4.6086956521739131</v>
+        <f>AVERAGE(P5:P49)</f>
+        <v>4.6888888888888891</v>
       </c>
       <c r="Q50" s="69">
-        <f>AVERAGE(Q4:Q49)</f>
-        <v>4.6521739130434785</v>
+        <f>AVERAGE(Q5:Q49)</f>
+        <v>4.7111111111111112</v>
       </c>
       <c r="R50" s="69">
-        <f>AVERAGE(R4:R49)</f>
-        <v>4.6086956521739131</v>
+        <f>AVERAGE(R5:R49)</f>
+        <v>4.6444444444444448</v>
       </c>
       <c r="S50" s="69">
-        <f>AVERAGE(S4:S49)</f>
-        <v>4.6521739130434785</v>
+        <f>AVERAGE(S5:S49)</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="T50" s="27">
         <f>AVERAGE(P50:S50)</f>
-        <v>4.6304347826086953</v>
-      </c>
-      <c r="U50" s="144">
-        <f>AVERAGE(U4:U49)</f>
-        <v>4.7391304347826084</v>
-      </c>
-      <c r="V50" s="145">
-        <f>AVERAGE(V4:V49)</f>
-        <v>4.7391304347826084</v>
-      </c>
-      <c r="W50" s="145">
-        <f>AVERAGE(W4:W49)</f>
-        <v>4.6739130434782608</v>
-      </c>
-      <c r="X50" s="146">
+        <v>4.677777777777778</v>
+      </c>
+      <c r="U50" s="107">
+        <f>AVERAGE(U5:U49)</f>
+        <v>4.822222222222222</v>
+      </c>
+      <c r="V50" s="108">
+        <f>AVERAGE(V5:V49)</f>
+        <v>4.8</v>
+      </c>
+      <c r="W50" s="108">
+        <f>AVERAGE(W5:W49)</f>
+        <v>4.7111111111111112</v>
+      </c>
+      <c r="X50" s="109">
         <f>AVERAGE(U50:W50)</f>
-        <v>4.7173913043478253</v>
+        <v>4.7777777777777777</v>
       </c>
       <c r="Y50" s="73">
-        <f>AVERAGE(Y4:Y49)</f>
-        <v>4.7826086956521738</v>
+        <f>AVERAGE(Y5:Y49)</f>
+        <v>4.8666666666666663</v>
       </c>
       <c r="Z50" s="77">
-        <f>AVERAGE(Z4:Z49)</f>
-        <v>4.6956521739130439</v>
+        <f>AVERAGE(Z5:Z49)</f>
+        <v>4.7555555555555555</v>
       </c>
       <c r="AA50" s="77">
-        <f>AVERAGE(AA4:AA49)</f>
-        <v>4.7173913043478262</v>
+        <f>AVERAGE(AA5:AA49)</f>
+        <v>4.7555555555555555</v>
       </c>
       <c r="AB50" s="77">
-        <f>AVERAGE(AB4:AB49)</f>
-        <v>4.7608695652173916</v>
-      </c>
-      <c r="AC50" s="28"/>
+        <f>AVERAGE(AB5:AB49)</f>
+        <v>4.7777777777777777</v>
+      </c>
+      <c r="AC50" s="28">
+        <f>AVERAGE(Y50:AA50)</f>
+        <v>4.7925925925925918</v>
+      </c>
       <c r="AD50" s="81">
-        <f>AVERAGE(AD4:AD49)</f>
-        <v>4.7608695652173916</v>
+        <f>AVERAGE(AD5:AD49)</f>
+        <v>4.8444444444444441</v>
       </c>
       <c r="AE50" s="29">
         <f>AVERAGE(AD50)</f>
-        <v>4.7608695652173916</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="X51">
-        <f>AVERAGE(Y50:AB50)</f>
-        <v>4.7391304347826093</v>
+        <v>4.8444444444444441</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
+++ b/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VirtualShrine\Document\Final_Documents_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE9E4BC-2656-44D0-9E43-39B028045EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57112296-3084-403A-B155-906DCC1A505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -975,55 +975,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,6 +1033,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,97 +1392,97 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="133" t="s">
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="139" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="109" t="s">
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="119" t="s">
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="121" t="s">
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="115" t="s">
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="116"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
+      <c r="AE2" s="136"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
     </row>
     <row r="3" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="118"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="144"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="138"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
     </row>
     <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1580,12 +1580,24 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="53"/>
+      <c r="C5" s="34">
+        <v>5</v>
+      </c>
+      <c r="D5" s="39">
+        <v>5</v>
+      </c>
+      <c r="E5" s="44">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>15</v>
+      </c>
+      <c r="G5" s="49">
+        <v>5</v>
+      </c>
+      <c r="H5" s="53">
+        <v>5</v>
+      </c>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
       <c r="K5" s="14"/>
@@ -2952,34 +2964,90 @@
       <c r="B25" s="2">
         <v>21</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="75"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="87"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="91"/>
+      <c r="C25" s="35">
+        <v>5</v>
+      </c>
+      <c r="D25" s="40">
+        <v>5</v>
+      </c>
+      <c r="E25" s="45">
+        <v>5</v>
+      </c>
+      <c r="F25" s="20">
+        <v>15</v>
+      </c>
+      <c r="G25" s="50">
+        <v>5</v>
+      </c>
+      <c r="H25" s="54">
+        <v>5</v>
+      </c>
+      <c r="I25" s="54">
+        <v>5</v>
+      </c>
+      <c r="J25" s="54">
+        <v>5</v>
+      </c>
+      <c r="K25" s="21">
+        <v>20</v>
+      </c>
+      <c r="L25" s="58">
+        <v>5</v>
+      </c>
+      <c r="M25" s="62">
+        <v>5</v>
+      </c>
+      <c r="N25" s="62">
+        <v>5</v>
+      </c>
+      <c r="O25" s="22">
+        <v>15</v>
+      </c>
+      <c r="P25" s="67">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="71">
+        <v>5</v>
+      </c>
+      <c r="R25" s="71">
+        <v>5</v>
+      </c>
+      <c r="S25" s="71">
+        <v>5</v>
+      </c>
+      <c r="T25" s="23">
+        <v>20</v>
+      </c>
+      <c r="U25" s="75">
+        <v>5</v>
+      </c>
+      <c r="V25" s="79">
+        <v>5</v>
+      </c>
+      <c r="W25" s="79">
+        <v>5</v>
+      </c>
+      <c r="X25" s="24">
+        <v>15</v>
+      </c>
+      <c r="Y25" s="83">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="87">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="87">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="87">
+        <v>5</v>
+      </c>
+      <c r="AC25" s="25">
+        <v>20</v>
+      </c>
+      <c r="AD25" s="91">
+        <v>5</v>
+      </c>
       <c r="AE25" s="26"/>
     </row>
     <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
+++ b/Document/Final_Documents_Capstone/Evaluation Result Updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VirtualShrine\Document\Final_Documents_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57112296-3084-403A-B155-906DCC1A505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BCAEF1-F3BF-45D0-A18A-37A2EF3129A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>RES.</t>
   </si>
@@ -844,7 +844,7 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -975,6 +975,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,7 +1036,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,6 +1084,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
@@ -1379,41 +1380,41 @@
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="32" max="33" width="9.33203125" customWidth="1"/>
+    <col min="32" max="36" width="9.140625" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="116" t="s">
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="122" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="124"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
       <c r="P2" s="129" t="s">
         <v>6</v>
       </c>
@@ -1438,29 +1439,33 @@
         <v>9</v>
       </c>
       <c r="AE2" s="136"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
+      <c r="AF2" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="119"/>
+      <c r="AK2" s="145"/>
+      <c r="AL2" s="145"/>
+      <c r="AM2" s="145"/>
     </row>
-    <row r="3" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="127"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="128"/>
       <c r="P3" s="132"/>
       <c r="Q3" s="133"/>
       <c r="R3" s="133"/>
@@ -1477,14 +1482,16 @@
       <c r="AC3" s="144"/>
       <c r="AD3" s="137"/>
       <c r="AE3" s="138"/>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="128"/>
-      <c r="AJ3" s="128"/>
-      <c r="AK3" s="128"/>
-      <c r="AL3" s="128"/>
-      <c r="AM3" s="128"/>
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="145"/>
+      <c r="AL3" s="145"/>
+      <c r="AM3" s="145"/>
     </row>
-    <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="65"/>
       <c r="C4" s="94">
@@ -1574,8 +1581,23 @@
       <c r="AE4" s="107" t="s">
         <v>4</v>
       </c>
+      <c r="AF4" s="96">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="97">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="97">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="97">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="98" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="100"/>
       <c r="B5" s="2">
         <v>1</v>
@@ -1621,8 +1643,17 @@
       <c r="AC5" s="18"/>
       <c r="AD5" s="90"/>
       <c r="AE5" s="19"/>
+      <c r="AF5" s="49">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="53">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="14"/>
     </row>
-    <row r="6" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="100"/>
       <c r="B6" s="2">
         <v>2</v>
@@ -1656,8 +1687,13 @@
       <c r="AC6" s="25"/>
       <c r="AD6" s="91"/>
       <c r="AE6" s="26"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="21"/>
     </row>
-    <row r="7" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100"/>
       <c r="B7" s="4">
         <v>3</v>
@@ -1691,8 +1727,13 @@
       <c r="AC7" s="18"/>
       <c r="AD7" s="90"/>
       <c r="AE7" s="19"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="14"/>
     </row>
-    <row r="8" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="100"/>
       <c r="B8" s="2">
         <v>4</v>
@@ -1726,8 +1767,13 @@
       <c r="AC8" s="25"/>
       <c r="AD8" s="91"/>
       <c r="AE8" s="26"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="21"/>
     </row>
-    <row r="9" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="100"/>
       <c r="B9" s="3">
         <v>5</v>
@@ -1761,8 +1807,13 @@
       <c r="AC9" s="25"/>
       <c r="AD9" s="91"/>
       <c r="AE9" s="26"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="21"/>
     </row>
-    <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="101"/>
       <c r="B10" s="2">
         <v>6</v>
@@ -1852,8 +1903,23 @@
         <v>5</v>
       </c>
       <c r="AE10" s="26"/>
+      <c r="AF10" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="54">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="21">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="101"/>
       <c r="B11" s="3">
         <v>7</v>
@@ -1943,8 +2009,23 @@
         <v>5</v>
       </c>
       <c r="AE11" s="26"/>
+      <c r="AF11" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG11" s="54">
+        <v>4</v>
+      </c>
+      <c r="AH11" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI11" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ11" s="21">
+        <v>19</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="101"/>
       <c r="B12" s="2">
         <v>8</v>
@@ -1978,8 +2059,13 @@
       <c r="AC12" s="25"/>
       <c r="AD12" s="91"/>
       <c r="AE12" s="26"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="21"/>
     </row>
-    <row r="13" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="101"/>
       <c r="B13" s="2">
         <v>9</v>
@@ -2013,8 +2099,13 @@
       <c r="AC13" s="25"/>
       <c r="AD13" s="91"/>
       <c r="AE13" s="26"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="21"/>
     </row>
-    <row r="14" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="101"/>
       <c r="B14" s="3">
         <v>10</v>
@@ -2048,8 +2139,13 @@
       <c r="AC14" s="18"/>
       <c r="AD14" s="90"/>
       <c r="AE14" s="19"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="14"/>
     </row>
-    <row r="15" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="102"/>
       <c r="B15" s="2">
         <v>11</v>
@@ -2139,8 +2235,23 @@
         <v>5</v>
       </c>
       <c r="AE15" s="26"/>
+      <c r="AF15" s="50">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="54">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="54">
+        <v>4</v>
+      </c>
+      <c r="AI15" s="54">
+        <v>4</v>
+      </c>
+      <c r="AJ15" s="21">
+        <v>14</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="102"/>
       <c r="B16" s="2">
         <v>12</v>
@@ -2230,8 +2341,23 @@
         <v>4</v>
       </c>
       <c r="AE16" s="26"/>
+      <c r="AF16" s="50">
+        <v>4</v>
+      </c>
+      <c r="AG16" s="54">
+        <v>4</v>
+      </c>
+      <c r="AH16" s="54">
+        <v>4</v>
+      </c>
+      <c r="AI16" s="54">
+        <v>4</v>
+      </c>
+      <c r="AJ16" s="21">
+        <v>16</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="102"/>
       <c r="B17" s="2">
         <v>13</v>
@@ -2321,8 +2447,23 @@
         <v>5</v>
       </c>
       <c r="AE17" s="26"/>
+      <c r="AF17" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="54">
+        <v>4</v>
+      </c>
+      <c r="AI17" s="54">
+        <v>4</v>
+      </c>
+      <c r="AJ17" s="21">
+        <v>18</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="103"/>
       <c r="B18" s="3">
         <v>14</v>
@@ -2412,8 +2553,23 @@
         <v>5</v>
       </c>
       <c r="AE18" s="26"/>
+      <c r="AF18" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="54">
+        <v>4</v>
+      </c>
+      <c r="AH18" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI18" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ18" s="21">
+        <v>19</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="103"/>
       <c r="B19" s="2">
         <v>15</v>
@@ -2503,8 +2659,23 @@
         <v>5</v>
       </c>
       <c r="AE19" s="26"/>
+      <c r="AF19" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI19" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="103"/>
       <c r="B20" s="2">
         <v>16</v>
@@ -2594,8 +2765,23 @@
         <v>5</v>
       </c>
       <c r="AE20" s="26"/>
+      <c r="AF20" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI20" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ20" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="103"/>
       <c r="B21" s="2">
         <v>17</v>
@@ -2685,8 +2871,23 @@
         <v>5</v>
       </c>
       <c r="AE21" s="26"/>
+      <c r="AF21" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI21" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ21" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="103"/>
       <c r="B22" s="3">
         <v>18</v>
@@ -2776,8 +2977,23 @@
         <v>5</v>
       </c>
       <c r="AE22" s="26"/>
+      <c r="AF22" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH22" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI22" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ22" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="103"/>
       <c r="B23" s="2">
         <v>19</v>
@@ -2867,8 +3083,23 @@
         <v>5</v>
       </c>
       <c r="AE23" s="26"/>
+      <c r="AF23" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH23" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI23" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ23" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="103"/>
       <c r="B24" s="3">
         <v>20</v>
@@ -2958,8 +3189,23 @@
         <v>5</v>
       </c>
       <c r="AE24" s="26"/>
+      <c r="AF24" s="50">
+        <v>4</v>
+      </c>
+      <c r="AG24" s="54">
+        <v>3</v>
+      </c>
+      <c r="AH24" s="54">
+        <v>4</v>
+      </c>
+      <c r="AI24" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="21">
+        <v>16</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="103"/>
       <c r="B25" s="2">
         <v>21</v>
@@ -3049,8 +3295,23 @@
         <v>5</v>
       </c>
       <c r="AE25" s="26"/>
+      <c r="AF25" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG25" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH25" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI25" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ25" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="103"/>
       <c r="B26" s="3">
         <v>22</v>
@@ -3084,8 +3345,13 @@
       <c r="AC26" s="25"/>
       <c r="AD26" s="91"/>
       <c r="AE26" s="26"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="21"/>
     </row>
-    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="103"/>
       <c r="B27" s="2">
         <v>23</v>
@@ -3175,8 +3441,23 @@
         <v>5</v>
       </c>
       <c r="AE27" s="26"/>
+      <c r="AF27" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH27" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI27" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ27" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="104"/>
       <c r="B28" s="2">
         <v>24</v>
@@ -3266,8 +3547,23 @@
         <v>5</v>
       </c>
       <c r="AE28" s="26"/>
+      <c r="AF28" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG28" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH28" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI28" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ28" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="104"/>
       <c r="B29" s="2">
         <v>25</v>
@@ -3357,8 +3653,23 @@
         <v>4</v>
       </c>
       <c r="AE29" s="26"/>
+      <c r="AF29" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG29" s="54">
+        <v>4</v>
+      </c>
+      <c r="AH29" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI29" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ29" s="21">
+        <v>19</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="104"/>
       <c r="B30" s="4">
         <v>26</v>
@@ -3448,8 +3759,23 @@
         <v>4</v>
       </c>
       <c r="AE30" s="26"/>
+      <c r="AF30" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG30" s="54">
+        <v>4</v>
+      </c>
+      <c r="AH30" s="54">
+        <v>4</v>
+      </c>
+      <c r="AI30" s="54">
+        <v>4</v>
+      </c>
+      <c r="AJ30" s="21">
+        <v>17</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="104"/>
       <c r="B31" s="2">
         <v>27</v>
@@ -3539,8 +3865,23 @@
         <v>5</v>
       </c>
       <c r="AE31" s="26"/>
+      <c r="AF31" s="50">
+        <v>4</v>
+      </c>
+      <c r="AG31" s="54">
+        <v>4</v>
+      </c>
+      <c r="AH31" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI31" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ31" s="21">
+        <v>18</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="104"/>
       <c r="B32" s="3">
         <v>28</v>
@@ -3630,8 +3971,23 @@
         <v>5</v>
       </c>
       <c r="AE32" s="26"/>
+      <c r="AF32" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG32" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH32" s="54">
+        <v>4</v>
+      </c>
+      <c r="AI32" s="54">
+        <v>4</v>
+      </c>
+      <c r="AJ32" s="21">
+        <v>18</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="104"/>
       <c r="B33" s="2">
         <v>29</v>
@@ -3721,8 +4077,23 @@
         <v>5</v>
       </c>
       <c r="AE33" s="26"/>
+      <c r="AF33" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG33" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH33" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI33" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ33" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="104"/>
       <c r="B34" s="3">
         <v>30</v>
@@ -3812,8 +4183,23 @@
         <v>5</v>
       </c>
       <c r="AE34" s="26"/>
+      <c r="AF34" s="50">
+        <v>3</v>
+      </c>
+      <c r="AG34" s="54">
+        <v>4</v>
+      </c>
+      <c r="AH34" s="54">
+        <v>4</v>
+      </c>
+      <c r="AI34" s="54">
+        <v>3</v>
+      </c>
+      <c r="AJ34" s="21">
+        <v>14</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="104"/>
       <c r="B35" s="2">
         <v>31</v>
@@ -3903,8 +4289,23 @@
         <v>5</v>
       </c>
       <c r="AE35" s="26"/>
+      <c r="AF35" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH35" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI35" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ35" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="104"/>
       <c r="B36" s="3">
         <v>32</v>
@@ -3994,8 +4395,23 @@
         <v>5</v>
       </c>
       <c r="AE36" s="26"/>
+      <c r="AF36" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG36" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH36" s="54">
+        <v>4</v>
+      </c>
+      <c r="AI36" s="54">
+        <v>4</v>
+      </c>
+      <c r="AJ36" s="21">
+        <v>18</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="104"/>
       <c r="B37" s="2">
         <v>33</v>
@@ -4085,8 +4501,23 @@
         <v>4</v>
       </c>
       <c r="AE37" s="26"/>
+      <c r="AF37" s="50">
+        <v>3</v>
+      </c>
+      <c r="AG37" s="54">
+        <v>3</v>
+      </c>
+      <c r="AH37" s="54">
+        <v>3</v>
+      </c>
+      <c r="AI37" s="54">
+        <v>3</v>
+      </c>
+      <c r="AJ37" s="21">
+        <v>12</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="105"/>
       <c r="B38" s="2">
         <v>34</v>
@@ -4176,8 +4607,23 @@
         <v>4</v>
       </c>
       <c r="AE38" s="26"/>
+      <c r="AF38" s="50">
+        <v>4</v>
+      </c>
+      <c r="AG38" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH38" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI38" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ38" s="21">
+        <v>19</v>
+      </c>
     </row>
-    <row r="39" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="105"/>
       <c r="B39" s="3">
         <v>35</v>
@@ -4267,8 +4713,23 @@
         <v>5</v>
       </c>
       <c r="AE39" s="26"/>
+      <c r="AF39" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG39" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH39" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI39" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ39" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="40" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="105"/>
       <c r="B40" s="2">
         <v>36</v>
@@ -4358,8 +4819,23 @@
         <v>5</v>
       </c>
       <c r="AE40" s="26"/>
+      <c r="AF40" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG40" s="54">
+        <v>4</v>
+      </c>
+      <c r="AH40" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI40" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ40" s="21">
+        <v>19</v>
+      </c>
     </row>
-    <row r="41" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="105"/>
       <c r="B41" s="2">
         <v>37</v>
@@ -4449,8 +4925,23 @@
         <v>5</v>
       </c>
       <c r="AE41" s="26"/>
+      <c r="AF41" s="50">
+        <v>4</v>
+      </c>
+      <c r="AG41" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH41" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI41" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ41" s="21">
+        <v>19</v>
+      </c>
     </row>
-    <row r="42" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="105"/>
       <c r="B42" s="3">
         <v>38</v>
@@ -4540,8 +5031,23 @@
         <v>5</v>
       </c>
       <c r="AE42" s="26"/>
+      <c r="AF42" s="50">
+        <v>4</v>
+      </c>
+      <c r="AG42" s="54">
+        <v>3</v>
+      </c>
+      <c r="AH42" s="54">
+        <v>3</v>
+      </c>
+      <c r="AI42" s="54">
+        <v>3</v>
+      </c>
+      <c r="AJ42" s="21">
+        <v>13</v>
+      </c>
     </row>
-    <row r="43" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="105"/>
       <c r="B43" s="2">
         <v>39</v>
@@ -4631,8 +5137,23 @@
         <v>5</v>
       </c>
       <c r="AE43" s="26"/>
+      <c r="AF43" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG43" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH43" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI43" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ43" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="44" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="105"/>
       <c r="B44" s="3">
         <v>40</v>
@@ -4722,8 +5243,23 @@
         <v>5</v>
       </c>
       <c r="AE44" s="26"/>
+      <c r="AF44" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG44" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH44" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI44" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ44" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="45" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="105"/>
       <c r="B45" s="2">
         <v>41</v>
@@ -4813,8 +5349,23 @@
         <v>5</v>
       </c>
       <c r="AE45" s="26"/>
+      <c r="AF45" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG45" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH45" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI45" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ45" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="46" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="105"/>
       <c r="B46" s="3">
         <v>42</v>
@@ -4904,8 +5455,23 @@
         <v>5</v>
       </c>
       <c r="AE46" s="26"/>
+      <c r="AF46" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG46" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH46" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI46" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ46" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="47" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="105"/>
       <c r="B47" s="2">
         <v>43</v>
@@ -4995,8 +5561,23 @@
         <v>5</v>
       </c>
       <c r="AE47" s="26"/>
+      <c r="AF47" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG47" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH47" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI47" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ47" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="48" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="105"/>
       <c r="B48" s="3">
         <v>44</v>
@@ -5086,8 +5667,23 @@
         <v>4</v>
       </c>
       <c r="AE48" s="26"/>
+      <c r="AF48" s="50">
+        <v>5</v>
+      </c>
+      <c r="AG48" s="54">
+        <v>5</v>
+      </c>
+      <c r="AH48" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI48" s="54">
+        <v>5</v>
+      </c>
+      <c r="AJ48" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="49" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="105"/>
       <c r="B49" s="4">
         <v>45</v>
@@ -5177,8 +5773,23 @@
         <v>4</v>
       </c>
       <c r="AE49" s="11"/>
+      <c r="AF49" s="51">
+        <v>5</v>
+      </c>
+      <c r="AG49" s="55">
+        <v>5</v>
+      </c>
+      <c r="AH49" s="55">
+        <v>5</v>
+      </c>
+      <c r="AI49" s="55">
+        <v>5</v>
+      </c>
+      <c r="AJ49" s="6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="50" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
         <v>1</v>
@@ -5212,6 +5823,11 @@
       <c r="AC50" s="32"/>
       <c r="AD50" s="93"/>
       <c r="AE50" s="33"/>
+      <c r="AF50" s="52"/>
+      <c r="AG50" s="56"/>
+      <c r="AH50" s="56"/>
+      <c r="AI50" s="56"/>
+      <c r="AJ50" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5219,11 +5835,11 @@
     <mergeCell ref="C2:F3"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="L2:O3"/>
-    <mergeCell ref="AH2:AM3"/>
     <mergeCell ref="P2:T3"/>
     <mergeCell ref="AD2:AE3"/>
     <mergeCell ref="U2:X3"/>
     <mergeCell ref="Y2:AC3"/>
+    <mergeCell ref="AF2:AJ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
